--- a/30Days_MME.xlsx
+++ b/30Days_MME.xlsx
@@ -457,94 +457,94 @@
     <t>2024-04-01 MME/DAY (mg)</t>
   </si>
   <si>
+    <t>HYDROCODONE 5 MG-IBUPROFEN 200 MG TABLET</t>
+  </si>
+  <si>
     <t>CODEINE-BUTALBITAL-ASA-CAFFEINE 30 MG-50 MG-325 MG-40 MG CAPSULE</t>
   </si>
   <si>
-    <t>HYDROCODONE 5 MG-IBUPROFEN 200 MG TABLET</t>
-  </si>
-  <si>
     <t>ACETAMINOPHEN 300 MG-CODEINE 30 MG TABLET</t>
   </si>
   <si>
     <t>TABLET</t>
   </si>
   <si>
+    <t>30 tablet</t>
+  </si>
+  <si>
+    <t>10 tablet</t>
+  </si>
+  <si>
     <t>90 capsule</t>
   </si>
   <si>
     <t>30 capsule</t>
   </si>
   <si>
-    <t>10 tablet</t>
-  </si>
-  <si>
-    <t>30 tablet</t>
+    <t>60 tablet</t>
   </si>
   <si>
     <t>5 tablet</t>
   </si>
   <si>
-    <t>60 tablet</t>
-  </si>
-  <si>
     <t>90 tablet</t>
   </si>
   <si>
+    <t>Daily</t>
+  </si>
+  <si>
     <t>Daily PRN</t>
   </si>
   <si>
-    <t>Daily</t>
-  </si>
-  <si>
     <t>Every 4 hours PRN</t>
   </si>
   <si>
     <t>Every 8 hours PRN</t>
   </si>
   <si>
+    <t>HYDROCODONE/IBUPROFEN</t>
+  </si>
+  <si>
     <t>CODEINE/BUTALBITAL/ASA/CAFFEIN</t>
   </si>
   <si>
-    <t>HYDROCODONE/IBUPROFEN</t>
-  </si>
-  <si>
     <t>ACETAMINOPHEN WITH CODEINE</t>
   </si>
   <si>
+    <t>HYDROcodone 5 mg-ibuprofen 200 mg tablet</t>
+  </si>
+  <si>
     <t>codeine-butalbital-ASA-caffeine 30 mg-50 mg-325 mg-40 mg capsule</t>
   </si>
   <si>
-    <t>HYDROcodone 5 mg-ibuprofen 200 mg tablet</t>
-  </si>
-  <si>
     <t>acetaminophen 300 mg-codeine 30 mg tablet</t>
   </si>
   <si>
+    <t>5-200 mg</t>
+  </si>
+  <si>
     <t>30-50-325-40 mg</t>
   </si>
   <si>
-    <t>5-200 mg</t>
-  </si>
-  <si>
     <t>300-30 mg</t>
   </si>
   <si>
+    <t>hydrocodone</t>
+  </si>
+  <si>
     <t>codeine</t>
   </si>
   <si>
-    <t>hydrocodone</t>
+    <t>5mg</t>
   </si>
   <si>
     <t>30mg</t>
   </si>
   <si>
-    <t>5mg</t>
+    <t>tablet</t>
   </si>
   <si>
     <t>capsule</t>
-  </si>
-  <si>
-    <t>tablet</t>
   </si>
 </sst>
 </file>
@@ -1357,17 +1357,23 @@
     </row>
     <row r="2" spans="1:147">
       <c r="A2">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44252</v>
+        <v>44210</v>
       </c>
       <c r="C2">
-        <v>510755663</v>
+        <v>11118</v>
       </c>
       <c r="D2" t="s">
         <v>147</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
       <c r="G2" t="s">
         <v>151</v>
       </c>
@@ -1375,10 +1381,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>44252</v>
+        <v>44210</v>
       </c>
       <c r="J2" s="2">
-        <v>44280</v>
+        <v>44242</v>
+      </c>
+      <c r="K2" t="s">
+        <v>158</v>
       </c>
       <c r="L2" t="s">
         <v>162</v>
@@ -1396,184 +1405,46 @@
         <v>173</v>
       </c>
       <c r="Q2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
         <v>175</v>
       </c>
       <c r="S2">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="T2">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="V2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W2">
-        <v>3.214285714285714</v>
-      </c>
-      <c r="Z2">
-        <v>130.5</v>
-      </c>
-      <c r="AA2">
-        <v>4.35</v>
-      </c>
-      <c r="AD2">
-        <v>94.5</v>
-      </c>
-      <c r="AE2">
-        <v>3.15</v>
-      </c>
-      <c r="AH2">
-        <v>40.5</v>
-      </c>
-      <c r="AI2">
-        <v>1.35</v>
-      </c>
-      <c r="AL2">
-        <v>139.5</v>
-      </c>
-      <c r="AM2">
-        <v>4.65</v>
-      </c>
-      <c r="AP2">
-        <v>130.5</v>
-      </c>
-      <c r="AQ2">
-        <v>4.35</v>
-      </c>
-      <c r="AT2">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU2">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX2">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY2">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB2">
-        <v>108</v>
-      </c>
-      <c r="BC2">
-        <v>3.6</v>
-      </c>
-      <c r="BF2">
-        <v>85.5</v>
-      </c>
-      <c r="BG2">
-        <v>2.85</v>
-      </c>
-      <c r="BJ2">
-        <v>72</v>
-      </c>
-      <c r="BK2">
-        <v>2.4</v>
-      </c>
-      <c r="BN2">
-        <v>58.5</v>
-      </c>
-      <c r="BO2">
-        <v>1.95</v>
-      </c>
-      <c r="BR2">
-        <v>94.5</v>
-      </c>
-      <c r="BS2">
-        <v>3.15</v>
-      </c>
-      <c r="BV2">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW2">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ2">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA2">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD2">
-        <v>121.5</v>
-      </c>
-      <c r="CE2">
-        <v>4.05</v>
-      </c>
-      <c r="CH2">
-        <v>135</v>
-      </c>
-      <c r="CI2">
-        <v>4.5</v>
-      </c>
-      <c r="CL2">
-        <v>279</v>
-      </c>
-      <c r="CM2">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP2">
-        <v>351</v>
-      </c>
-      <c r="CQ2">
-        <v>11.7</v>
-      </c>
-      <c r="CT2">
-        <v>76.5</v>
-      </c>
-      <c r="CU2">
-        <v>2.55</v>
-      </c>
-      <c r="CX2">
-        <v>121.5</v>
-      </c>
-      <c r="CY2">
-        <v>4.05</v>
-      </c>
-      <c r="DB2">
-        <v>139.5</v>
-      </c>
-      <c r="DC2">
-        <v>4.65</v>
-      </c>
-      <c r="DF2">
-        <v>143</v>
-      </c>
-      <c r="DG2">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ2">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK2">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN2">
-        <v>33.75</v>
-      </c>
-      <c r="DO2">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:147">
       <c r="A3">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="C3">
-        <v>510755670</v>
+        <v>11113</v>
       </c>
       <c r="D3" t="s">
         <v>147</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
       <c r="G3" t="s">
         <v>151</v>
       </c>
@@ -1581,10 +1452,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="J3" s="2">
-        <v>44291</v>
+        <v>44270</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
       </c>
       <c r="L3" t="s">
         <v>162</v>
@@ -1602,195 +1476,60 @@
         <v>173</v>
       </c>
       <c r="Q3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
         <v>175</v>
       </c>
       <c r="S3">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="T3">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="V3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="W3">
-        <v>8.181818181818182</v>
-      </c>
-      <c r="Z3">
-        <v>130.5</v>
-      </c>
-      <c r="AA3">
-        <v>4.35</v>
-      </c>
-      <c r="AD3">
-        <v>94.5</v>
-      </c>
-      <c r="AE3">
-        <v>3.15</v>
-      </c>
-      <c r="AH3">
-        <v>40.5</v>
-      </c>
-      <c r="AI3">
-        <v>1.35</v>
-      </c>
-      <c r="AL3">
-        <v>139.5</v>
-      </c>
-      <c r="AM3">
-        <v>4.65</v>
-      </c>
-      <c r="AP3">
-        <v>130.5</v>
-      </c>
-      <c r="AQ3">
-        <v>4.35</v>
-      </c>
-      <c r="AT3">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU3">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX3">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY3">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB3">
-        <v>108</v>
-      </c>
-      <c r="BC3">
-        <v>3.6</v>
-      </c>
-      <c r="BF3">
-        <v>85.5</v>
-      </c>
-      <c r="BG3">
-        <v>2.85</v>
-      </c>
-      <c r="BJ3">
-        <v>72</v>
-      </c>
-      <c r="BK3">
-        <v>2.4</v>
-      </c>
-      <c r="BN3">
-        <v>58.5</v>
-      </c>
-      <c r="BO3">
-        <v>1.95</v>
-      </c>
-      <c r="BR3">
-        <v>94.5</v>
-      </c>
-      <c r="BS3">
-        <v>3.15</v>
-      </c>
-      <c r="BV3">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW3">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ3">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA3">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD3">
-        <v>121.5</v>
-      </c>
-      <c r="CE3">
-        <v>4.05</v>
-      </c>
-      <c r="CH3">
-        <v>135</v>
-      </c>
-      <c r="CI3">
-        <v>4.5</v>
-      </c>
-      <c r="CL3">
-        <v>279</v>
-      </c>
-      <c r="CM3">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP3">
-        <v>351</v>
-      </c>
-      <c r="CQ3">
-        <v>11.7</v>
-      </c>
-      <c r="CT3">
-        <v>76.5</v>
-      </c>
-      <c r="CU3">
-        <v>2.55</v>
-      </c>
-      <c r="CX3">
-        <v>121.5</v>
-      </c>
-      <c r="CY3">
-        <v>4.05</v>
-      </c>
-      <c r="DB3">
-        <v>139.5</v>
-      </c>
-      <c r="DC3">
-        <v>4.65</v>
-      </c>
-      <c r="DF3">
-        <v>143</v>
-      </c>
-      <c r="DG3">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ3">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK3">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN3">
-        <v>33.75</v>
-      </c>
-      <c r="DO3">
-        <v>1.125</v>
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:147">
       <c r="A4">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44291</v>
+        <v>44270</v>
       </c>
       <c r="C4">
-        <v>510755672</v>
+        <v>11116</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>44291</v>
+        <v>44270</v>
       </c>
       <c r="J4" s="2">
-        <v>44340</v>
+        <v>44302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
       </c>
       <c r="L4" t="s">
         <v>162</v>
@@ -1808,189 +1547,60 @@
         <v>173</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
         <v>175</v>
       </c>
       <c r="S4">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="T4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="V4">
         <v>30</v>
       </c>
       <c r="W4">
         <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>130.5</v>
-      </c>
-      <c r="AA4">
-        <v>4.35</v>
-      </c>
-      <c r="AD4">
-        <v>94.5</v>
-      </c>
-      <c r="AE4">
-        <v>3.15</v>
-      </c>
-      <c r="AH4">
-        <v>40.5</v>
-      </c>
-      <c r="AI4">
-        <v>1.35</v>
-      </c>
-      <c r="AL4">
-        <v>139.5</v>
-      </c>
-      <c r="AM4">
-        <v>4.65</v>
-      </c>
-      <c r="AP4">
-        <v>130.5</v>
-      </c>
-      <c r="AQ4">
-        <v>4.35</v>
-      </c>
-      <c r="AT4">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU4">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX4">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY4">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB4">
-        <v>108</v>
-      </c>
-      <c r="BC4">
-        <v>3.6</v>
-      </c>
-      <c r="BF4">
-        <v>85.5</v>
-      </c>
-      <c r="BG4">
-        <v>2.85</v>
-      </c>
-      <c r="BJ4">
-        <v>72</v>
-      </c>
-      <c r="BK4">
-        <v>2.4</v>
-      </c>
-      <c r="BN4">
-        <v>58.5</v>
-      </c>
-      <c r="BO4">
-        <v>1.95</v>
-      </c>
-      <c r="BR4">
-        <v>94.5</v>
-      </c>
-      <c r="BS4">
-        <v>3.15</v>
-      </c>
-      <c r="BV4">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW4">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ4">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA4">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD4">
-        <v>121.5</v>
-      </c>
-      <c r="CE4">
-        <v>4.05</v>
-      </c>
-      <c r="CH4">
-        <v>135</v>
-      </c>
-      <c r="CI4">
-        <v>4.5</v>
-      </c>
-      <c r="CL4">
-        <v>279</v>
-      </c>
-      <c r="CM4">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP4">
-        <v>351</v>
-      </c>
-      <c r="CQ4">
-        <v>11.7</v>
-      </c>
-      <c r="CT4">
-        <v>76.5</v>
-      </c>
-      <c r="CU4">
-        <v>2.55</v>
-      </c>
-      <c r="CX4">
-        <v>121.5</v>
-      </c>
-      <c r="CY4">
-        <v>4.05</v>
-      </c>
-      <c r="DB4">
-        <v>139.5</v>
-      </c>
-      <c r="DC4">
-        <v>4.65</v>
-      </c>
-      <c r="DF4">
-        <v>143</v>
-      </c>
-      <c r="DG4">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ4">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK4">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN4">
-        <v>33.75</v>
-      </c>
-      <c r="DO4">
-        <v>1.125</v>
       </c>
     </row>
     <row r="5" spans="1:147">
       <c r="A5">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="C5">
-        <v>522196399</v>
+        <v>11114</v>
       </c>
       <c r="D5" t="s">
         <v>147</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
       <c r="G5" t="s">
         <v>151</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
-        <v>44309</v>
+        <v>44302</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44337</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2008,201 +1618,57 @@
         <v>173</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s">
         <v>175</v>
       </c>
       <c r="S5">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="T5">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="V5">
         <v>30</v>
       </c>
       <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>130.5</v>
-      </c>
-      <c r="AA5">
-        <v>4.35</v>
-      </c>
-      <c r="AD5">
-        <v>94.5</v>
-      </c>
-      <c r="AE5">
-        <v>3.15</v>
-      </c>
-      <c r="AH5">
-        <v>40.5</v>
-      </c>
-      <c r="AI5">
-        <v>1.35</v>
-      </c>
-      <c r="AL5">
-        <v>139.5</v>
-      </c>
-      <c r="AM5">
-        <v>4.65</v>
-      </c>
-      <c r="AP5">
-        <v>130.5</v>
-      </c>
-      <c r="AQ5">
-        <v>4.35</v>
-      </c>
-      <c r="AT5">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU5">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX5">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY5">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB5">
-        <v>108</v>
-      </c>
-      <c r="BC5">
-        <v>3.6</v>
-      </c>
-      <c r="BF5">
-        <v>85.5</v>
-      </c>
-      <c r="BG5">
-        <v>2.85</v>
-      </c>
-      <c r="BJ5">
-        <v>72</v>
-      </c>
-      <c r="BK5">
-        <v>2.4</v>
-      </c>
-      <c r="BN5">
-        <v>58.5</v>
-      </c>
-      <c r="BO5">
-        <v>1.95</v>
-      </c>
-      <c r="BR5">
-        <v>94.5</v>
-      </c>
-      <c r="BS5">
-        <v>3.15</v>
-      </c>
-      <c r="BV5">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW5">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ5">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA5">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD5">
-        <v>121.5</v>
-      </c>
-      <c r="CE5">
-        <v>4.05</v>
-      </c>
-      <c r="CH5">
-        <v>135</v>
-      </c>
-      <c r="CI5">
-        <v>4.5</v>
-      </c>
-      <c r="CJ5">
-        <v>12</v>
-      </c>
-      <c r="CK5">
-        <v>162</v>
-      </c>
-      <c r="CL5">
-        <v>279</v>
-      </c>
-      <c r="CM5">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CN5">
-        <v>20</v>
-      </c>
-      <c r="CO5">
-        <v>270</v>
-      </c>
-      <c r="CP5">
-        <v>351</v>
-      </c>
-      <c r="CQ5">
-        <v>11.7</v>
-      </c>
-      <c r="CT5">
-        <v>76.5</v>
-      </c>
-      <c r="CU5">
-        <v>2.55</v>
-      </c>
-      <c r="CX5">
-        <v>121.5</v>
-      </c>
-      <c r="CY5">
-        <v>4.05</v>
-      </c>
-      <c r="DB5">
-        <v>139.5</v>
-      </c>
-      <c r="DC5">
-        <v>4.65</v>
-      </c>
-      <c r="DF5">
-        <v>143</v>
-      </c>
-      <c r="DG5">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ5">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK5">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN5">
-        <v>33.75</v>
-      </c>
-      <c r="DO5">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:147">
       <c r="A6">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C6">
-        <v>523968781</v>
+        <v>11115</v>
       </c>
       <c r="D6" t="s">
         <v>147</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
       <c r="G6" t="s">
         <v>151</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" s="2">
-        <v>44336</v>
+        <v>44337</v>
+      </c>
+      <c r="K6" t="s">
+        <v>158</v>
       </c>
       <c r="L6" t="s">
         <v>162</v>
@@ -2220,192 +1686,60 @@
         <v>173</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
         <v>175</v>
       </c>
       <c r="S6">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="T6">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="V6">
         <v>30</v>
       </c>
       <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="Z6">
-        <v>130.5</v>
-      </c>
-      <c r="AA6">
-        <v>4.35</v>
-      </c>
-      <c r="AD6">
-        <v>94.5</v>
-      </c>
-      <c r="AE6">
-        <v>3.15</v>
-      </c>
-      <c r="AH6">
-        <v>40.5</v>
-      </c>
-      <c r="AI6">
-        <v>1.35</v>
-      </c>
-      <c r="AL6">
-        <v>139.5</v>
-      </c>
-      <c r="AM6">
-        <v>4.65</v>
-      </c>
-      <c r="AP6">
-        <v>130.5</v>
-      </c>
-      <c r="AQ6">
-        <v>4.35</v>
-      </c>
-      <c r="AT6">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU6">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX6">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY6">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB6">
-        <v>108</v>
-      </c>
-      <c r="BC6">
-        <v>3.6</v>
-      </c>
-      <c r="BF6">
-        <v>85.5</v>
-      </c>
-      <c r="BG6">
-        <v>2.85</v>
-      </c>
-      <c r="BJ6">
-        <v>72</v>
-      </c>
-      <c r="BK6">
-        <v>2.4</v>
-      </c>
-      <c r="BN6">
-        <v>58.5</v>
-      </c>
-      <c r="BO6">
-        <v>1.95</v>
-      </c>
-      <c r="BR6">
-        <v>94.5</v>
-      </c>
-      <c r="BS6">
-        <v>3.15</v>
-      </c>
-      <c r="BV6">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW6">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ6">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA6">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD6">
-        <v>121.5</v>
-      </c>
-      <c r="CE6">
-        <v>4.05</v>
-      </c>
-      <c r="CH6">
-        <v>135</v>
-      </c>
-      <c r="CI6">
-        <v>4.5</v>
-      </c>
-      <c r="CL6">
-        <v>279</v>
-      </c>
-      <c r="CM6">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP6">
-        <v>351</v>
-      </c>
-      <c r="CQ6">
-        <v>11.7</v>
-      </c>
-      <c r="CT6">
-        <v>76.5</v>
-      </c>
-      <c r="CU6">
-        <v>2.55</v>
-      </c>
-      <c r="CX6">
-        <v>121.5</v>
-      </c>
-      <c r="CY6">
-        <v>4.05</v>
-      </c>
-      <c r="DB6">
-        <v>139.5</v>
-      </c>
-      <c r="DC6">
-        <v>4.65</v>
-      </c>
-      <c r="DF6">
-        <v>143</v>
-      </c>
-      <c r="DG6">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ6">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK6">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN6">
-        <v>33.75</v>
-      </c>
-      <c r="DO6">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:147">
       <c r="A7">
-        <v>5995663083</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>44340</v>
+        <v>44371</v>
       </c>
       <c r="C7">
-        <v>523968783</v>
+        <v>11117</v>
       </c>
       <c r="D7" t="s">
         <v>147</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>44340</v>
+        <v>44371</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44390</v>
+      </c>
+      <c r="K7" t="s">
+        <v>158</v>
       </c>
       <c r="L7" t="s">
         <v>162</v>
@@ -2423,184 +1757,46 @@
         <v>173</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s">
         <v>175</v>
       </c>
       <c r="S7">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="T7">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="V7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>130.5</v>
-      </c>
-      <c r="AA7">
-        <v>4.35</v>
-      </c>
-      <c r="AD7">
-        <v>94.5</v>
-      </c>
-      <c r="AE7">
-        <v>3.15</v>
-      </c>
-      <c r="AH7">
-        <v>40.5</v>
-      </c>
-      <c r="AI7">
-        <v>1.35</v>
-      </c>
-      <c r="AL7">
-        <v>139.5</v>
-      </c>
-      <c r="AM7">
-        <v>4.65</v>
-      </c>
-      <c r="AP7">
-        <v>130.5</v>
-      </c>
-      <c r="AQ7">
-        <v>4.35</v>
-      </c>
-      <c r="AT7">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU7">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX7">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY7">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB7">
-        <v>108</v>
-      </c>
-      <c r="BC7">
-        <v>3.6</v>
-      </c>
-      <c r="BF7">
-        <v>85.5</v>
-      </c>
-      <c r="BG7">
-        <v>2.85</v>
-      </c>
-      <c r="BJ7">
-        <v>72</v>
-      </c>
-      <c r="BK7">
-        <v>2.4</v>
-      </c>
-      <c r="BN7">
-        <v>58.5</v>
-      </c>
-      <c r="BO7">
-        <v>1.95</v>
-      </c>
-      <c r="BR7">
-        <v>94.5</v>
-      </c>
-      <c r="BS7">
-        <v>3.15</v>
-      </c>
-      <c r="BV7">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW7">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ7">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA7">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD7">
-        <v>121.5</v>
-      </c>
-      <c r="CE7">
-        <v>4.05</v>
-      </c>
-      <c r="CH7">
-        <v>135</v>
-      </c>
-      <c r="CI7">
-        <v>4.5</v>
-      </c>
-      <c r="CL7">
-        <v>279</v>
-      </c>
-      <c r="CM7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP7">
-        <v>351</v>
-      </c>
-      <c r="CQ7">
-        <v>11.7</v>
-      </c>
-      <c r="CT7">
-        <v>76.5</v>
-      </c>
-      <c r="CU7">
-        <v>2.55</v>
-      </c>
-      <c r="CX7">
-        <v>121.5</v>
-      </c>
-      <c r="CY7">
-        <v>4.05</v>
-      </c>
-      <c r="DB7">
-        <v>139.5</v>
-      </c>
-      <c r="DC7">
-        <v>4.65</v>
-      </c>
-      <c r="DF7">
-        <v>143</v>
-      </c>
-      <c r="DG7">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ7">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK7">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN7">
-        <v>33.75</v>
-      </c>
-      <c r="DO7">
-        <v>1.125</v>
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="8" spans="1:147">
       <c r="A8">
-        <v>5995663083</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>44378</v>
+        <v>44342</v>
       </c>
       <c r="C8">
-        <v>535257225</v>
+        <v>11119</v>
       </c>
       <c r="D8" t="s">
         <v>147</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
       <c r="G8" t="s">
         <v>152</v>
       </c>
@@ -2608,10 +1804,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>44378</v>
+        <v>44342</v>
       </c>
       <c r="J8" s="2">
-        <v>44399</v>
+        <v>44369</v>
+      </c>
+      <c r="K8" t="s">
+        <v>159</v>
       </c>
       <c r="L8" t="s">
         <v>162</v>
@@ -2629,228 +1828,87 @@
         <v>173</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
         <v>175</v>
       </c>
       <c r="S8">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="T8">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="V8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W8">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="Z8">
-        <v>130.5</v>
-      </c>
-      <c r="AA8">
-        <v>4.35</v>
-      </c>
-      <c r="AD8">
-        <v>94.5</v>
-      </c>
-      <c r="AE8">
-        <v>3.15</v>
-      </c>
-      <c r="AH8">
-        <v>40.5</v>
-      </c>
-      <c r="AI8">
-        <v>1.35</v>
-      </c>
-      <c r="AL8">
-        <v>139.5</v>
-      </c>
-      <c r="AM8">
-        <v>4.65</v>
-      </c>
-      <c r="AP8">
-        <v>130.5</v>
-      </c>
-      <c r="AQ8">
-        <v>4.35</v>
-      </c>
-      <c r="AT8">
-        <v>141.4565217391304</v>
-      </c>
-      <c r="AU8">
-        <v>4.715217391304348</v>
-      </c>
-      <c r="AX8">
-        <v>154.1739130434783</v>
-      </c>
-      <c r="AY8">
-        <v>5.139130434782609</v>
-      </c>
-      <c r="BB8">
-        <v>108</v>
-      </c>
-      <c r="BC8">
-        <v>3.6</v>
-      </c>
-      <c r="BF8">
-        <v>85.5</v>
-      </c>
-      <c r="BG8">
-        <v>2.85</v>
-      </c>
-      <c r="BJ8">
-        <v>72</v>
-      </c>
-      <c r="BK8">
-        <v>2.4</v>
-      </c>
-      <c r="BN8">
-        <v>58.5</v>
-      </c>
-      <c r="BO8">
-        <v>1.95</v>
-      </c>
-      <c r="BR8">
-        <v>94.5</v>
-      </c>
-      <c r="BS8">
-        <v>3.15</v>
-      </c>
-      <c r="BV8">
-        <v>185.1428571428571</v>
-      </c>
-      <c r="BW8">
-        <v>6.171428571428572</v>
-      </c>
-      <c r="BZ8">
-        <v>201.5357142857143</v>
-      </c>
-      <c r="CA8">
-        <v>6.717857142857143</v>
-      </c>
-      <c r="CD8">
-        <v>121.5</v>
-      </c>
-      <c r="CE8">
-        <v>4.05</v>
-      </c>
-      <c r="CH8">
-        <v>135</v>
-      </c>
-      <c r="CI8">
-        <v>4.5</v>
-      </c>
-      <c r="CL8">
-        <v>279</v>
-      </c>
-      <c r="CM8">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CP8">
-        <v>351</v>
-      </c>
-      <c r="CQ8">
-        <v>11.7</v>
-      </c>
-      <c r="CT8">
-        <v>76.5</v>
-      </c>
-      <c r="CU8">
-        <v>2.55</v>
-      </c>
-      <c r="CX8">
-        <v>121.5</v>
-      </c>
-      <c r="CY8">
-        <v>4.05</v>
-      </c>
-      <c r="DB8">
-        <v>139.5</v>
-      </c>
-      <c r="DC8">
-        <v>4.65</v>
-      </c>
-      <c r="DF8">
-        <v>143</v>
-      </c>
-      <c r="DG8">
-        <v>4.766666666666667</v>
-      </c>
-      <c r="DJ8">
-        <v>146.4285714285714</v>
-      </c>
-      <c r="DK8">
-        <v>4.880952380952381</v>
-      </c>
-      <c r="DN8">
-        <v>33.75</v>
-      </c>
-      <c r="DO8">
-        <v>1.125</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="9" spans="1:147">
       <c r="A9">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>44379</v>
+        <v>44252</v>
       </c>
       <c r="C9">
-        <v>535257223</v>
+        <v>11126</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>44379</v>
+        <v>44252</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44280</v>
       </c>
       <c r="L9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S9">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="T9">
         <v>0.15</v>
       </c>
       <c r="U9">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="V9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="Z9">
         <v>130.5</v>
@@ -2999,61 +2057,64 @@
     </row>
     <row r="10" spans="1:147">
       <c r="A10">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>44399</v>
+        <v>44280</v>
       </c>
       <c r="C10">
-        <v>535257228</v>
+        <v>11132</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>44399</v>
+        <v>44280</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44291</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S10">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="T10">
         <v>0.15</v>
       </c>
       <c r="U10">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="V10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="Z10">
         <v>130.5</v>
@@ -3202,49 +2263,49 @@
     </row>
     <row r="11" spans="1:147">
       <c r="A11">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>44431</v>
+        <v>44291</v>
       </c>
       <c r="C11">
-        <v>535257233</v>
+        <v>11143</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>44431</v>
+        <v>44291</v>
       </c>
       <c r="J11" s="2">
-        <v>44462</v>
+        <v>44340</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S11">
         <v>900</v>
@@ -3260,12 +2321,6 @@
       </c>
       <c r="W11">
         <v>1</v>
-      </c>
-      <c r="X11">
-        <v>21</v>
-      </c>
-      <c r="Y11">
-        <v>94.5</v>
       </c>
       <c r="Z11">
         <v>130.5</v>
@@ -3414,79 +2469,64 @@
     </row>
     <row r="12" spans="1:147">
       <c r="A12">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>44462</v>
+        <v>44309</v>
       </c>
       <c r="C12">
-        <v>545046023</v>
+        <v>11137</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I12" s="2">
-        <v>44462</v>
+        <v>44309</v>
       </c>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S12">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="T12">
         <v>0.15</v>
       </c>
       <c r="U12">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="V12">
         <v>30</v>
       </c>
       <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>8</v>
-      </c>
-      <c r="Y12">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="Z12">
         <v>130.5</v>
       </c>
       <c r="AA12">
         <v>4.35</v>
-      </c>
-      <c r="AB12">
-        <v>21</v>
-      </c>
-      <c r="AC12">
-        <v>94.5</v>
       </c>
       <c r="AD12">
         <v>94.5</v>
@@ -3629,61 +2669,58 @@
     </row>
     <row r="13" spans="1:147">
       <c r="A13">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>44522</v>
+        <v>44336</v>
       </c>
       <c r="C13">
-        <v>559883912</v>
+        <v>11120</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I13" s="2">
-        <v>44522</v>
+        <v>44336</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S13">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="T13">
         <v>0.15</v>
       </c>
       <c r="U13">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="V13">
         <v>30</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z13">
         <v>130.5</v>
@@ -3697,23 +2734,11 @@
       <c r="AE13">
         <v>3.15</v>
       </c>
-      <c r="AF13">
-        <v>9</v>
-      </c>
-      <c r="AG13">
-        <v>40.5</v>
-      </c>
       <c r="AH13">
         <v>40.5</v>
       </c>
       <c r="AI13">
         <v>1.35</v>
-      </c>
-      <c r="AJ13">
-        <v>20</v>
-      </c>
-      <c r="AK13">
-        <v>90</v>
       </c>
       <c r="AL13">
         <v>139.5</v>
@@ -3844,46 +2869,46 @@
     </row>
     <row r="14" spans="1:147">
       <c r="A14">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>44551</v>
+        <v>44340</v>
       </c>
       <c r="C14">
-        <v>562521801</v>
+        <v>11122</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>44551</v>
+        <v>44340</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S14">
         <v>900</v>
@@ -3918,23 +2943,11 @@
       <c r="AI14">
         <v>1.35</v>
       </c>
-      <c r="AJ14">
-        <v>11</v>
-      </c>
-      <c r="AK14">
-        <v>49.5</v>
-      </c>
       <c r="AL14">
         <v>139.5</v>
       </c>
       <c r="AM14">
         <v>4.65</v>
-      </c>
-      <c r="AN14">
-        <v>18</v>
-      </c>
-      <c r="AO14">
-        <v>81</v>
       </c>
       <c r="AP14">
         <v>130.5</v>
@@ -4059,46 +3072,49 @@
     </row>
     <row r="15" spans="1:147">
       <c r="A15">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>44582</v>
+        <v>44378</v>
       </c>
       <c r="C15">
-        <v>573122730</v>
+        <v>11128</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>44582</v>
+        <v>44378</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44399</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>30</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S15">
         <v>900</v>
@@ -4110,10 +3126,10 @@
         <v>135</v>
       </c>
       <c r="V15">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="Z15">
         <v>130.5</v>
@@ -4139,23 +3155,11 @@
       <c r="AM15">
         <v>4.65</v>
       </c>
-      <c r="AN15">
-        <v>11</v>
-      </c>
-      <c r="AO15">
-        <v>49.5</v>
-      </c>
       <c r="AP15">
         <v>130.5</v>
       </c>
       <c r="AQ15">
         <v>4.35</v>
-      </c>
-      <c r="AR15">
-        <v>21</v>
-      </c>
-      <c r="AS15">
-        <v>94.5</v>
       </c>
       <c r="AT15">
         <v>141.4565217391304</v>
@@ -4274,49 +3278,46 @@
     </row>
     <row r="16" spans="1:147">
       <c r="A16">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>44613</v>
+        <v>44379</v>
       </c>
       <c r="C16">
-        <v>573122734</v>
+        <v>11129</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>44613</v>
-      </c>
-      <c r="J16" s="2">
-        <v>44636</v>
+        <v>44379</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S16">
         <v>900</v>
@@ -4328,10 +3329,10 @@
         <v>135</v>
       </c>
       <c r="V16">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="W16">
-        <v>1.304347826086957</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>130.5</v>
@@ -4363,23 +3364,11 @@
       <c r="AQ16">
         <v>4.35</v>
       </c>
-      <c r="AR16">
-        <v>8</v>
-      </c>
-      <c r="AS16">
-        <v>46.95652173913044</v>
-      </c>
       <c r="AT16">
         <v>141.4565217391304</v>
       </c>
       <c r="AU16">
         <v>4.715217391304348</v>
-      </c>
-      <c r="AV16">
-        <v>14</v>
-      </c>
-      <c r="AW16">
-        <v>82.17391304347827</v>
       </c>
       <c r="AX16">
         <v>154.1739130434783</v>
@@ -4492,46 +3481,46 @@
     </row>
     <row r="17" spans="1:119">
       <c r="A17">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>44636</v>
+        <v>44399</v>
       </c>
       <c r="C17">
-        <v>573122740</v>
+        <v>11127</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>44636</v>
+        <v>44399</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S17">
         <v>900</v>
@@ -4584,23 +3573,11 @@
       <c r="AU17">
         <v>4.715217391304348</v>
       </c>
-      <c r="AV17">
-        <v>16</v>
-      </c>
-      <c r="AW17">
-        <v>72</v>
-      </c>
       <c r="AX17">
         <v>154.1739130434783</v>
       </c>
       <c r="AY17">
         <v>5.139130434782609</v>
-      </c>
-      <c r="AZ17">
-        <v>14</v>
-      </c>
-      <c r="BA17">
-        <v>63</v>
       </c>
       <c r="BB17">
         <v>108</v>
@@ -4707,46 +3684,49 @@
     </row>
     <row r="18" spans="1:119">
       <c r="A18">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>44672</v>
+        <v>44431</v>
       </c>
       <c r="C18">
-        <v>589809902</v>
+        <v>11141</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>44672</v>
+        <v>44431</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44462</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S18">
         <v>900</v>
@@ -4763,6 +3743,12 @@
       <c r="W18">
         <v>1</v>
       </c>
+      <c r="X18">
+        <v>21</v>
+      </c>
+      <c r="Y18">
+        <v>94.5</v>
+      </c>
       <c r="Z18">
         <v>130.5</v>
       </c>
@@ -4805,23 +3791,11 @@
       <c r="AY18">
         <v>5.139130434782609</v>
       </c>
-      <c r="AZ18">
-        <v>10</v>
-      </c>
-      <c r="BA18">
-        <v>45</v>
-      </c>
       <c r="BB18">
         <v>108</v>
       </c>
       <c r="BC18">
         <v>3.6</v>
-      </c>
-      <c r="BD18">
-        <v>19</v>
-      </c>
-      <c r="BE18">
-        <v>85.5</v>
       </c>
       <c r="BF18">
         <v>85.5</v>
@@ -4922,46 +3896,46 @@
     </row>
     <row r="19" spans="1:119">
       <c r="A19">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>44727</v>
+        <v>44462</v>
       </c>
       <c r="C19">
-        <v>599754898</v>
+        <v>11130</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>44727</v>
+        <v>44462</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S19">
         <v>900</v>
@@ -4978,12 +3952,24 @@
       <c r="W19">
         <v>1</v>
       </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>36</v>
+      </c>
       <c r="Z19">
         <v>130.5</v>
       </c>
       <c r="AA19">
         <v>4.35</v>
       </c>
+      <c r="AB19">
+        <v>21</v>
+      </c>
+      <c r="AC19">
+        <v>94.5</v>
+      </c>
       <c r="AD19">
         <v>94.5</v>
       </c>
@@ -5032,23 +4018,11 @@
       <c r="BG19">
         <v>2.85</v>
       </c>
-      <c r="BH19">
-        <v>16</v>
-      </c>
-      <c r="BI19">
-        <v>72</v>
-      </c>
       <c r="BJ19">
         <v>72</v>
       </c>
       <c r="BK19">
         <v>2.4</v>
-      </c>
-      <c r="BL19">
-        <v>13</v>
-      </c>
-      <c r="BM19">
-        <v>58.5</v>
       </c>
       <c r="BN19">
         <v>58.5</v>
@@ -5137,49 +4111,46 @@
     </row>
     <row r="20" spans="1:119">
       <c r="A20">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>44784</v>
+        <v>44522</v>
       </c>
       <c r="C20">
-        <v>599754906</v>
+        <v>11131</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>44784</v>
-      </c>
-      <c r="J20" s="2">
-        <v>44819</v>
+        <v>44522</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>30</v>
       </c>
       <c r="R20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S20">
         <v>900</v>
@@ -5208,12 +4179,24 @@
       <c r="AE20">
         <v>3.15</v>
       </c>
+      <c r="AF20">
+        <v>9</v>
+      </c>
+      <c r="AG20">
+        <v>40.5</v>
+      </c>
       <c r="AH20">
         <v>40.5</v>
       </c>
       <c r="AI20">
         <v>1.35</v>
       </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>90</v>
+      </c>
       <c r="AL20">
         <v>139.5</v>
       </c>
@@ -5262,23 +4245,11 @@
       <c r="BO20">
         <v>1.95</v>
       </c>
-      <c r="BP20">
-        <v>21</v>
-      </c>
-      <c r="BQ20">
-        <v>94.5</v>
-      </c>
       <c r="BR20">
         <v>94.5</v>
       </c>
       <c r="BS20">
         <v>3.15</v>
-      </c>
-      <c r="BT20">
-        <v>9</v>
-      </c>
-      <c r="BU20">
-        <v>40.5</v>
       </c>
       <c r="BV20">
         <v>185.1428571428571</v>
@@ -5355,49 +4326,46 @@
     </row>
     <row r="21" spans="1:119">
       <c r="A21">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>44819</v>
+        <v>44551</v>
       </c>
       <c r="C21">
-        <v>616168846</v>
+        <v>11121</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>44819</v>
-      </c>
-      <c r="J21" s="2">
-        <v>44847</v>
+        <v>44551</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>30</v>
       </c>
       <c r="R21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S21">
         <v>900</v>
@@ -5409,10 +4377,10 @@
         <v>135</v>
       </c>
       <c r="V21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W21">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>130.5</v>
@@ -5432,12 +4400,24 @@
       <c r="AI21">
         <v>1.35</v>
       </c>
+      <c r="AJ21">
+        <v>11</v>
+      </c>
+      <c r="AK21">
+        <v>49.5</v>
+      </c>
       <c r="AL21">
         <v>139.5</v>
       </c>
       <c r="AM21">
         <v>4.65</v>
       </c>
+      <c r="AN21">
+        <v>18</v>
+      </c>
+      <c r="AO21">
+        <v>81</v>
+      </c>
       <c r="AP21">
         <v>130.5</v>
       </c>
@@ -5486,23 +4466,11 @@
       <c r="BS21">
         <v>3.15</v>
       </c>
-      <c r="BT21">
-        <v>16</v>
-      </c>
-      <c r="BU21">
-        <v>77.14285714285714</v>
-      </c>
       <c r="BV21">
         <v>185.1428571428571</v>
       </c>
       <c r="BW21">
         <v>6.171428571428572</v>
-      </c>
-      <c r="BX21">
-        <v>11</v>
-      </c>
-      <c r="BY21">
-        <v>53.03571428571428</v>
       </c>
       <c r="BZ21">
         <v>201.5357142857143</v>
@@ -5573,43 +4541,46 @@
     </row>
     <row r="22" spans="1:119">
       <c r="A22">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>44820</v>
+        <v>44582</v>
       </c>
       <c r="C22">
-        <v>616168843</v>
+        <v>11133</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>44820</v>
+        <v>44582</v>
       </c>
       <c r="L22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>30</v>
       </c>
       <c r="R22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S22">
         <v>900</v>
@@ -5650,12 +4621,24 @@
       <c r="AM22">
         <v>4.65</v>
       </c>
+      <c r="AN22">
+        <v>11</v>
+      </c>
+      <c r="AO22">
+        <v>49.5</v>
+      </c>
       <c r="AP22">
         <v>130.5</v>
       </c>
       <c r="AQ22">
         <v>4.35</v>
       </c>
+      <c r="AR22">
+        <v>21</v>
+      </c>
+      <c r="AS22">
+        <v>94.5</v>
+      </c>
       <c r="AT22">
         <v>141.4565217391304</v>
       </c>
@@ -5698,23 +4681,11 @@
       <c r="BS22">
         <v>3.15</v>
       </c>
-      <c r="BT22">
-        <v>15</v>
-      </c>
-      <c r="BU22">
-        <v>67.5</v>
-      </c>
       <c r="BV22">
         <v>185.1428571428571</v>
       </c>
       <c r="BW22">
         <v>6.171428571428572</v>
-      </c>
-      <c r="BX22">
-        <v>14</v>
-      </c>
-      <c r="BY22">
-        <v>63</v>
       </c>
       <c r="BZ22">
         <v>201.5357142857143</v>
@@ -5785,49 +4756,49 @@
     </row>
     <row r="23" spans="1:119">
       <c r="A23">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>44847</v>
+        <v>44613</v>
       </c>
       <c r="C23">
-        <v>616168850</v>
+        <v>11134</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>44847</v>
+        <v>44613</v>
       </c>
       <c r="J23" s="2">
-        <v>44880</v>
+        <v>44636</v>
       </c>
       <c r="L23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S23">
         <v>900</v>
@@ -5839,10 +4810,10 @@
         <v>135</v>
       </c>
       <c r="V23">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>1.304347826086957</v>
       </c>
       <c r="Z23">
         <v>130.5</v>
@@ -5874,12 +4845,24 @@
       <c r="AQ23">
         <v>4.35</v>
       </c>
+      <c r="AR23">
+        <v>8</v>
+      </c>
+      <c r="AS23">
+        <v>46.95652173913044</v>
+      </c>
       <c r="AT23">
         <v>141.4565217391304</v>
       </c>
       <c r="AU23">
         <v>4.715217391304348</v>
       </c>
+      <c r="AV23">
+        <v>14</v>
+      </c>
+      <c r="AW23">
+        <v>82.17391304347827</v>
+      </c>
       <c r="AX23">
         <v>154.1739130434783</v>
       </c>
@@ -5922,23 +4905,11 @@
       <c r="BW23">
         <v>6.171428571428572</v>
       </c>
-      <c r="BX23">
-        <v>19</v>
-      </c>
-      <c r="BY23">
-        <v>85.5</v>
-      </c>
       <c r="BZ23">
         <v>201.5357142857143</v>
       </c>
       <c r="CA23">
         <v>6.717857142857143</v>
-      </c>
-      <c r="CB23">
-        <v>11</v>
-      </c>
-      <c r="CC23">
-        <v>49.5</v>
       </c>
       <c r="CD23">
         <v>121.5</v>
@@ -6003,49 +4974,46 @@
     </row>
     <row r="24" spans="1:119">
       <c r="A24">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>44880</v>
+        <v>44636</v>
       </c>
       <c r="C24">
-        <v>625284824</v>
+        <v>11135</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>44880</v>
-      </c>
-      <c r="J24" s="2">
-        <v>44910</v>
+        <v>44636</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>30</v>
       </c>
       <c r="R24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S24">
         <v>900</v>
@@ -6098,12 +5066,24 @@
       <c r="AU24">
         <v>4.715217391304348</v>
       </c>
+      <c r="AV24">
+        <v>16</v>
+      </c>
+      <c r="AW24">
+        <v>72</v>
+      </c>
       <c r="AX24">
         <v>154.1739130434783</v>
       </c>
       <c r="AY24">
         <v>5.139130434782609</v>
       </c>
+      <c r="AZ24">
+        <v>14</v>
+      </c>
+      <c r="BA24">
+        <v>63</v>
+      </c>
       <c r="BB24">
         <v>108</v>
       </c>
@@ -6146,23 +5126,11 @@
       <c r="CA24">
         <v>6.717857142857143</v>
       </c>
-      <c r="CB24">
-        <v>16</v>
-      </c>
-      <c r="CC24">
-        <v>72</v>
-      </c>
       <c r="CD24">
         <v>121.5</v>
       </c>
       <c r="CE24">
         <v>4.05</v>
-      </c>
-      <c r="CF24">
-        <v>13</v>
-      </c>
-      <c r="CG24">
-        <v>58.5</v>
       </c>
       <c r="CH24">
         <v>135</v>
@@ -6221,46 +5189,46 @@
     </row>
     <row r="25" spans="1:119">
       <c r="A25">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2">
-        <v>44910</v>
+        <v>44672</v>
       </c>
       <c r="C25">
-        <v>625284827</v>
+        <v>11138</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>44910</v>
+        <v>44672</v>
       </c>
       <c r="L25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>30</v>
       </c>
       <c r="R25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S25">
         <v>900</v>
@@ -6319,12 +5287,24 @@
       <c r="AY25">
         <v>5.139130434782609</v>
       </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>45</v>
+      </c>
       <c r="BB25">
         <v>108</v>
       </c>
       <c r="BC25">
         <v>3.6</v>
       </c>
+      <c r="BD25">
+        <v>19</v>
+      </c>
+      <c r="BE25">
+        <v>85.5</v>
+      </c>
       <c r="BF25">
         <v>85.5</v>
       </c>
@@ -6367,23 +5347,11 @@
       <c r="CE25">
         <v>4.05</v>
       </c>
-      <c r="CF25">
-        <v>17</v>
-      </c>
-      <c r="CG25">
-        <v>76.5</v>
-      </c>
       <c r="CH25">
         <v>135</v>
       </c>
       <c r="CI25">
         <v>4.5</v>
-      </c>
-      <c r="CJ25">
-        <v>12</v>
-      </c>
-      <c r="CK25">
-        <v>54</v>
       </c>
       <c r="CL25">
         <v>279</v>
@@ -6436,46 +5404,46 @@
     </row>
     <row r="26" spans="1:119">
       <c r="A26">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>44944</v>
+        <v>44727</v>
       </c>
       <c r="C26">
-        <v>635449066</v>
+        <v>11142</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>44944</v>
+        <v>44727</v>
       </c>
       <c r="L26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>30</v>
       </c>
       <c r="R26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S26">
         <v>900</v>
@@ -6546,12 +5514,24 @@
       <c r="BG26">
         <v>2.85</v>
       </c>
+      <c r="BH26">
+        <v>16</v>
+      </c>
+      <c r="BI26">
+        <v>72</v>
+      </c>
       <c r="BJ26">
         <v>72</v>
       </c>
       <c r="BK26">
         <v>2.4</v>
       </c>
+      <c r="BL26">
+        <v>13</v>
+      </c>
+      <c r="BM26">
+        <v>58.5</v>
+      </c>
       <c r="BN26">
         <v>58.5</v>
       </c>
@@ -6588,23 +5568,11 @@
       <c r="CI26">
         <v>4.5</v>
       </c>
-      <c r="CJ26">
-        <v>14</v>
-      </c>
-      <c r="CK26">
-        <v>63</v>
-      </c>
       <c r="CL26">
         <v>279</v>
       </c>
       <c r="CM26">
         <v>9.300000000000001</v>
-      </c>
-      <c r="CN26">
-        <v>18</v>
-      </c>
-      <c r="CO26">
-        <v>81</v>
       </c>
       <c r="CP26">
         <v>351</v>
@@ -6651,58 +5619,64 @@
     </row>
     <row r="27" spans="1:119">
       <c r="A27">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>44946</v>
+        <v>44784</v>
       </c>
       <c r="C27">
-        <v>522196399</v>
+        <v>11136</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>44946</v>
+        <v>44784</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44819</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S27">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="T27">
         <v>0.15</v>
       </c>
       <c r="U27">
-        <v>405</v>
+        <v>135</v>
       </c>
       <c r="V27">
         <v>30</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>130.5</v>
@@ -6770,12 +5744,24 @@
       <c r="BO27">
         <v>1.95</v>
       </c>
+      <c r="BP27">
+        <v>21</v>
+      </c>
+      <c r="BQ27">
+        <v>94.5</v>
+      </c>
       <c r="BR27">
         <v>94.5</v>
       </c>
       <c r="BS27">
         <v>3.15</v>
       </c>
+      <c r="BT27">
+        <v>9</v>
+      </c>
+      <c r="BU27">
+        <v>40.5</v>
+      </c>
       <c r="BV27">
         <v>185.1428571428571</v>
       </c>
@@ -6800,23 +5786,11 @@
       <c r="CI27">
         <v>4.5</v>
       </c>
-      <c r="CJ27">
-        <v>12</v>
-      </c>
-      <c r="CK27">
-        <v>162</v>
-      </c>
       <c r="CL27">
         <v>279</v>
       </c>
       <c r="CM27">
         <v>9.300000000000001</v>
-      </c>
-      <c r="CN27">
-        <v>20</v>
-      </c>
-      <c r="CO27">
-        <v>270</v>
       </c>
       <c r="CP27">
         <v>351</v>
@@ -6863,46 +5837,49 @@
     </row>
     <row r="28" spans="1:119">
       <c r="A28">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>45000</v>
+        <v>44819</v>
       </c>
       <c r="C28">
-        <v>645264604</v>
+        <v>11144</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>45000</v>
+        <v>44819</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44847</v>
       </c>
       <c r="L28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>30</v>
       </c>
       <c r="R28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S28">
         <v>900</v>
@@ -6914,10 +5891,10 @@
         <v>135</v>
       </c>
       <c r="V28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z28">
         <v>130.5</v>
@@ -6991,12 +5968,24 @@
       <c r="BS28">
         <v>3.15</v>
       </c>
+      <c r="BT28">
+        <v>16</v>
+      </c>
+      <c r="BU28">
+        <v>77.14285714285714</v>
+      </c>
       <c r="BV28">
         <v>185.1428571428571</v>
       </c>
       <c r="BW28">
         <v>6.171428571428572</v>
       </c>
+      <c r="BX28">
+        <v>11</v>
+      </c>
+      <c r="BY28">
+        <v>53.03571428571428</v>
+      </c>
       <c r="BZ28">
         <v>201.5357142857143</v>
       </c>
@@ -7027,23 +6016,11 @@
       <c r="CQ28">
         <v>11.7</v>
       </c>
-      <c r="CR28">
-        <v>17</v>
-      </c>
-      <c r="CS28">
-        <v>76.5</v>
-      </c>
       <c r="CT28">
         <v>76.5</v>
       </c>
       <c r="CU28">
         <v>2.55</v>
-      </c>
-      <c r="CV28">
-        <v>13</v>
-      </c>
-      <c r="CW28">
-        <v>58.5</v>
       </c>
       <c r="CX28">
         <v>121.5</v>
@@ -7078,46 +6055,43 @@
     </row>
     <row r="29" spans="1:119">
       <c r="A29">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2">
-        <v>45033</v>
+        <v>44820</v>
       </c>
       <c r="C29">
-        <v>657464177</v>
+        <v>11140</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I29" s="2">
-        <v>45033</v>
+        <v>44820</v>
       </c>
       <c r="L29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>30</v>
       </c>
       <c r="R29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S29">
         <v>900</v>
@@ -7206,12 +6180,24 @@
       <c r="BS29">
         <v>3.15</v>
       </c>
+      <c r="BT29">
+        <v>15</v>
+      </c>
+      <c r="BU29">
+        <v>67.5</v>
+      </c>
       <c r="BV29">
         <v>185.1428571428571</v>
       </c>
       <c r="BW29">
         <v>6.171428571428572</v>
       </c>
+      <c r="BX29">
+        <v>14</v>
+      </c>
+      <c r="BY29">
+        <v>63</v>
+      </c>
       <c r="BZ29">
         <v>201.5357142857143</v>
       </c>
@@ -7248,23 +6234,11 @@
       <c r="CU29">
         <v>2.55</v>
       </c>
-      <c r="CV29">
-        <v>14</v>
-      </c>
-      <c r="CW29">
-        <v>63</v>
-      </c>
       <c r="CX29">
         <v>121.5</v>
       </c>
       <c r="CY29">
         <v>4.05</v>
-      </c>
-      <c r="CZ29">
-        <v>15</v>
-      </c>
-      <c r="DA29">
-        <v>67.5</v>
       </c>
       <c r="DB29">
         <v>139.5</v>
@@ -7293,49 +6267,49 @@
     </row>
     <row r="30" spans="1:119">
       <c r="A30">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>45062</v>
+        <v>44847</v>
       </c>
       <c r="C30">
-        <v>657464181</v>
+        <v>11145</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>45062</v>
+        <v>44847</v>
       </c>
       <c r="J30" s="2">
-        <v>45092</v>
+        <v>44880</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>30</v>
       </c>
       <c r="R30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S30">
         <v>900</v>
@@ -7430,12 +6404,24 @@
       <c r="BW30">
         <v>6.171428571428572</v>
       </c>
+      <c r="BX30">
+        <v>19</v>
+      </c>
+      <c r="BY30">
+        <v>85.5</v>
+      </c>
       <c r="BZ30">
         <v>201.5357142857143</v>
       </c>
       <c r="CA30">
         <v>6.717857142857143</v>
       </c>
+      <c r="CB30">
+        <v>11</v>
+      </c>
+      <c r="CC30">
+        <v>49.5</v>
+      </c>
       <c r="CD30">
         <v>121.5</v>
       </c>
@@ -7472,23 +6458,11 @@
       <c r="CY30">
         <v>4.05</v>
       </c>
-      <c r="CZ30">
-        <v>16</v>
-      </c>
-      <c r="DA30">
-        <v>72</v>
-      </c>
       <c r="DB30">
         <v>139.5</v>
       </c>
       <c r="DC30">
         <v>4.65</v>
-      </c>
-      <c r="DD30">
-        <v>14</v>
-      </c>
-      <c r="DE30">
-        <v>63</v>
       </c>
       <c r="DF30">
         <v>143</v>
@@ -7511,49 +6485,49 @@
     </row>
     <row r="31" spans="1:119">
       <c r="A31">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>45092</v>
+        <v>44880</v>
       </c>
       <c r="C31">
-        <v>665980390</v>
+        <v>11148</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>45092</v>
+        <v>44880</v>
       </c>
       <c r="J31" s="2">
-        <v>45119</v>
+        <v>44910</v>
       </c>
       <c r="L31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>30</v>
       </c>
       <c r="R31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S31">
         <v>900</v>
@@ -7565,10 +6539,10 @@
         <v>135</v>
       </c>
       <c r="V31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W31">
-        <v>1.111111111111111</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>130.5</v>
@@ -7654,12 +6628,24 @@
       <c r="CA31">
         <v>6.717857142857143</v>
       </c>
+      <c r="CB31">
+        <v>16</v>
+      </c>
+      <c r="CC31">
+        <v>72</v>
+      </c>
       <c r="CD31">
         <v>121.5</v>
       </c>
       <c r="CE31">
         <v>4.05</v>
       </c>
+      <c r="CF31">
+        <v>13</v>
+      </c>
+      <c r="CG31">
+        <v>58.5</v>
+      </c>
       <c r="CH31">
         <v>135</v>
       </c>
@@ -7696,23 +6682,11 @@
       <c r="DC31">
         <v>4.65</v>
       </c>
-      <c r="DD31">
-        <v>16</v>
-      </c>
-      <c r="DE31">
-        <v>80</v>
-      </c>
       <c r="DF31">
         <v>143</v>
       </c>
       <c r="DG31">
         <v>4.766666666666667</v>
-      </c>
-      <c r="DH31">
-        <v>10</v>
-      </c>
-      <c r="DI31">
-        <v>50</v>
       </c>
       <c r="DJ31">
         <v>146.4285714285714</v>
@@ -7729,49 +6703,46 @@
     </row>
     <row r="32" spans="1:119">
       <c r="A32">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>45119</v>
+        <v>44910</v>
       </c>
       <c r="C32">
-        <v>665980395</v>
+        <v>11150</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>45119</v>
-      </c>
-      <c r="J32" s="2">
-        <v>45147</v>
+        <v>44910</v>
       </c>
       <c r="L32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>30</v>
       </c>
       <c r="R32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S32">
         <v>900</v>
@@ -7783,10 +6754,10 @@
         <v>135</v>
       </c>
       <c r="V32">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W32">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>130.5</v>
@@ -7878,12 +6849,24 @@
       <c r="CE32">
         <v>4.05</v>
       </c>
+      <c r="CF32">
+        <v>17</v>
+      </c>
+      <c r="CG32">
+        <v>76.5</v>
+      </c>
       <c r="CH32">
         <v>135</v>
       </c>
       <c r="CI32">
         <v>4.5</v>
       </c>
+      <c r="CJ32">
+        <v>12</v>
+      </c>
+      <c r="CK32">
+        <v>54</v>
+      </c>
       <c r="CL32">
         <v>279</v>
       </c>
@@ -7920,24 +6903,12 @@
       <c r="DG32">
         <v>4.766666666666667</v>
       </c>
-      <c r="DH32">
-        <v>20</v>
-      </c>
-      <c r="DI32">
-        <v>96.42857142857143</v>
-      </c>
       <c r="DJ32">
         <v>146.4285714285714</v>
       </c>
       <c r="DK32">
         <v>4.880952380952381</v>
       </c>
-      <c r="DL32">
-        <v>7</v>
-      </c>
-      <c r="DM32">
-        <v>33.75</v>
-      </c>
       <c r="DN32">
         <v>33.75</v>
       </c>
@@ -7945,39 +6916,27 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="33" spans="1:115">
+    <row r="33" spans="1:119">
       <c r="A33">
-        <v>5995983414</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>44342</v>
+        <v>44944</v>
       </c>
       <c r="C33">
-        <v>528497448</v>
+        <v>11139</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>44342</v>
-      </c>
-      <c r="J33" s="2">
-        <v>44369</v>
-      </c>
-      <c r="K33" t="s">
-        <v>158</v>
+        <v>44944</v>
       </c>
       <c r="L33" t="s">
         <v>163</v>
@@ -7995,60 +6954,201 @@
         <v>174</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R33" t="s">
         <v>176</v>
       </c>
       <c r="S33">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="T33">
+        <v>0.15</v>
+      </c>
+      <c r="U33">
+        <v>135</v>
+      </c>
+      <c r="V33">
+        <v>30</v>
+      </c>
+      <c r="W33">
         <v>1</v>
       </c>
-      <c r="U33">
-        <v>50</v>
-      </c>
-      <c r="V33">
-        <v>27</v>
-      </c>
-      <c r="W33">
-        <v>0.3703703703703703</v>
+      <c r="Z33">
+        <v>130.5</v>
+      </c>
+      <c r="AA33">
+        <v>4.35</v>
+      </c>
+      <c r="AD33">
+        <v>94.5</v>
+      </c>
+      <c r="AE33">
+        <v>3.15</v>
+      </c>
+      <c r="AH33">
+        <v>40.5</v>
+      </c>
+      <c r="AI33">
+        <v>1.35</v>
+      </c>
+      <c r="AL33">
+        <v>139.5</v>
+      </c>
+      <c r="AM33">
+        <v>4.65</v>
+      </c>
+      <c r="AP33">
+        <v>130.5</v>
+      </c>
+      <c r="AQ33">
+        <v>4.35</v>
+      </c>
+      <c r="AT33">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU33">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX33">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY33">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB33">
+        <v>108</v>
+      </c>
+      <c r="BC33">
+        <v>3.6</v>
+      </c>
+      <c r="BF33">
+        <v>85.5</v>
+      </c>
+      <c r="BG33">
+        <v>2.85</v>
+      </c>
+      <c r="BJ33">
+        <v>72</v>
+      </c>
+      <c r="BK33">
+        <v>2.4</v>
+      </c>
+      <c r="BN33">
+        <v>58.5</v>
+      </c>
+      <c r="BO33">
+        <v>1.95</v>
+      </c>
+      <c r="BR33">
+        <v>94.5</v>
+      </c>
+      <c r="BS33">
+        <v>3.15</v>
+      </c>
+      <c r="BV33">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW33">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ33">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA33">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD33">
+        <v>121.5</v>
+      </c>
+      <c r="CE33">
+        <v>4.05</v>
+      </c>
+      <c r="CH33">
+        <v>135</v>
+      </c>
+      <c r="CI33">
+        <v>4.5</v>
+      </c>
+      <c r="CJ33">
+        <v>14</v>
+      </c>
+      <c r="CK33">
+        <v>63</v>
+      </c>
+      <c r="CL33">
+        <v>279</v>
+      </c>
+      <c r="CM33">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CN33">
+        <v>18</v>
+      </c>
+      <c r="CO33">
+        <v>81</v>
+      </c>
+      <c r="CP33">
+        <v>351</v>
+      </c>
+      <c r="CQ33">
+        <v>11.7</v>
+      </c>
+      <c r="CT33">
+        <v>76.5</v>
+      </c>
+      <c r="CU33">
+        <v>2.55</v>
+      </c>
+      <c r="CX33">
+        <v>121.5</v>
+      </c>
+      <c r="CY33">
+        <v>4.05</v>
+      </c>
+      <c r="DB33">
+        <v>139.5</v>
+      </c>
+      <c r="DC33">
+        <v>4.65</v>
+      </c>
+      <c r="DF33">
+        <v>143</v>
+      </c>
+      <c r="DG33">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DJ33">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK33">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN33">
+        <v>33.75</v>
+      </c>
+      <c r="DO33">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="34" spans="1:115">
+    <row r="34" spans="1:119">
       <c r="A34">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>44210</v>
+        <v>44946</v>
       </c>
       <c r="C34">
-        <v>502229033</v>
+        <v>11123</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
-      </c>
       <c r="G34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I34" s="2">
-        <v>44210</v>
-      </c>
-      <c r="J34" s="2">
-        <v>44242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>159</v>
+        <v>44946</v>
       </c>
       <c r="L34" t="s">
         <v>163</v>
@@ -8066,46 +7166,196 @@
         <v>174</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R34" t="s">
         <v>176</v>
       </c>
       <c r="S34">
-        <v>150</v>
+        <v>2700</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U34">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="V34">
         <v>30</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>130.5</v>
+      </c>
+      <c r="AA34">
+        <v>4.35</v>
+      </c>
+      <c r="AD34">
+        <v>94.5</v>
+      </c>
+      <c r="AE34">
+        <v>3.15</v>
+      </c>
+      <c r="AH34">
+        <v>40.5</v>
+      </c>
+      <c r="AI34">
+        <v>1.35</v>
+      </c>
+      <c r="AL34">
+        <v>139.5</v>
+      </c>
+      <c r="AM34">
+        <v>4.65</v>
+      </c>
+      <c r="AP34">
+        <v>130.5</v>
+      </c>
+      <c r="AQ34">
+        <v>4.35</v>
+      </c>
+      <c r="AT34">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU34">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX34">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY34">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB34">
+        <v>108</v>
+      </c>
+      <c r="BC34">
+        <v>3.6</v>
+      </c>
+      <c r="BF34">
+        <v>85.5</v>
+      </c>
+      <c r="BG34">
+        <v>2.85</v>
+      </c>
+      <c r="BJ34">
+        <v>72</v>
+      </c>
+      <c r="BK34">
+        <v>2.4</v>
+      </c>
+      <c r="BN34">
+        <v>58.5</v>
+      </c>
+      <c r="BO34">
+        <v>1.95</v>
+      </c>
+      <c r="BR34">
+        <v>94.5</v>
+      </c>
+      <c r="BS34">
+        <v>3.15</v>
+      </c>
+      <c r="BV34">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW34">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ34">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA34">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD34">
+        <v>121.5</v>
+      </c>
+      <c r="CE34">
+        <v>4.05</v>
+      </c>
+      <c r="CH34">
+        <v>135</v>
+      </c>
+      <c r="CI34">
+        <v>4.5</v>
+      </c>
+      <c r="CJ34">
+        <v>12</v>
+      </c>
+      <c r="CK34">
+        <v>162</v>
+      </c>
+      <c r="CL34">
+        <v>279</v>
+      </c>
+      <c r="CM34">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CN34">
+        <v>20</v>
+      </c>
+      <c r="CO34">
+        <v>270</v>
+      </c>
+      <c r="CP34">
+        <v>351</v>
+      </c>
+      <c r="CQ34">
+        <v>11.7</v>
+      </c>
+      <c r="CT34">
+        <v>76.5</v>
+      </c>
+      <c r="CU34">
+        <v>2.55</v>
+      </c>
+      <c r="CX34">
+        <v>121.5</v>
+      </c>
+      <c r="CY34">
+        <v>4.05</v>
+      </c>
+      <c r="DB34">
+        <v>139.5</v>
+      </c>
+      <c r="DC34">
+        <v>4.65</v>
+      </c>
+      <c r="DF34">
+        <v>143</v>
+      </c>
+      <c r="DG34">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DJ34">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK34">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN34">
+        <v>33.75</v>
+      </c>
+      <c r="DO34">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="35" spans="1:115">
+    <row r="35" spans="1:119">
       <c r="A35">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>44242</v>
+        <v>45000</v>
       </c>
       <c r="C35">
-        <v>502229035</v>
+        <v>11125</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>150</v>
-      </c>
       <c r="G35" t="s">
         <v>154</v>
       </c>
@@ -8113,13 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>44242</v>
-      </c>
-      <c r="J35" s="2">
-        <v>44270</v>
-      </c>
-      <c r="K35" t="s">
-        <v>159</v>
+        <v>45000</v>
       </c>
       <c r="L35" t="s">
         <v>163</v>
@@ -8137,46 +7381,196 @@
         <v>174</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R35" t="s">
         <v>176</v>
       </c>
       <c r="S35">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="T35">
+        <v>0.15</v>
+      </c>
+      <c r="U35">
+        <v>135</v>
+      </c>
+      <c r="V35">
+        <v>30</v>
+      </c>
+      <c r="W35">
         <v>1</v>
       </c>
-      <c r="U35">
-        <v>150</v>
-      </c>
-      <c r="V35">
-        <v>28</v>
-      </c>
-      <c r="W35">
-        <v>1.071428571428571</v>
+      <c r="Z35">
+        <v>130.5</v>
+      </c>
+      <c r="AA35">
+        <v>4.35</v>
+      </c>
+      <c r="AD35">
+        <v>94.5</v>
+      </c>
+      <c r="AE35">
+        <v>3.15</v>
+      </c>
+      <c r="AH35">
+        <v>40.5</v>
+      </c>
+      <c r="AI35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>139.5</v>
+      </c>
+      <c r="AM35">
+        <v>4.65</v>
+      </c>
+      <c r="AP35">
+        <v>130.5</v>
+      </c>
+      <c r="AQ35">
+        <v>4.35</v>
+      </c>
+      <c r="AT35">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU35">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX35">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY35">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB35">
+        <v>108</v>
+      </c>
+      <c r="BC35">
+        <v>3.6</v>
+      </c>
+      <c r="BF35">
+        <v>85.5</v>
+      </c>
+      <c r="BG35">
+        <v>2.85</v>
+      </c>
+      <c r="BJ35">
+        <v>72</v>
+      </c>
+      <c r="BK35">
+        <v>2.4</v>
+      </c>
+      <c r="BN35">
+        <v>58.5</v>
+      </c>
+      <c r="BO35">
+        <v>1.95</v>
+      </c>
+      <c r="BR35">
+        <v>94.5</v>
+      </c>
+      <c r="BS35">
+        <v>3.15</v>
+      </c>
+      <c r="BV35">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW35">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ35">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA35">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD35">
+        <v>121.5</v>
+      </c>
+      <c r="CE35">
+        <v>4.05</v>
+      </c>
+      <c r="CH35">
+        <v>135</v>
+      </c>
+      <c r="CI35">
+        <v>4.5</v>
+      </c>
+      <c r="CL35">
+        <v>279</v>
+      </c>
+      <c r="CM35">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CP35">
+        <v>351</v>
+      </c>
+      <c r="CQ35">
+        <v>11.7</v>
+      </c>
+      <c r="CR35">
+        <v>17</v>
+      </c>
+      <c r="CS35">
+        <v>76.5</v>
+      </c>
+      <c r="CT35">
+        <v>76.5</v>
+      </c>
+      <c r="CU35">
+        <v>2.55</v>
+      </c>
+      <c r="CV35">
+        <v>13</v>
+      </c>
+      <c r="CW35">
+        <v>58.5</v>
+      </c>
+      <c r="CX35">
+        <v>121.5</v>
+      </c>
+      <c r="CY35">
+        <v>4.05</v>
+      </c>
+      <c r="DB35">
+        <v>139.5</v>
+      </c>
+      <c r="DC35">
+        <v>4.65</v>
+      </c>
+      <c r="DF35">
+        <v>143</v>
+      </c>
+      <c r="DG35">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DJ35">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK35">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN35">
+        <v>33.75</v>
+      </c>
+      <c r="DO35">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="36" spans="1:115">
+    <row r="36" spans="1:119">
       <c r="A36">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>44270</v>
+        <v>45033</v>
       </c>
       <c r="C36">
-        <v>502229036</v>
+        <v>11149</v>
       </c>
       <c r="D36" t="s">
         <v>148</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
-      </c>
       <c r="G36" t="s">
         <v>154</v>
       </c>
@@ -8184,13 +7578,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>44270</v>
-      </c>
-      <c r="J36" s="2">
-        <v>44302</v>
-      </c>
-      <c r="K36" t="s">
-        <v>159</v>
+        <v>45033</v>
       </c>
       <c r="L36" t="s">
         <v>163</v>
@@ -8208,19 +7596,19 @@
         <v>174</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R36" t="s">
         <v>176</v>
       </c>
       <c r="S36">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U36">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="V36">
         <v>30</v>
@@ -8228,26 +7616,176 @@
       <c r="W36">
         <v>1</v>
       </c>
+      <c r="Z36">
+        <v>130.5</v>
+      </c>
+      <c r="AA36">
+        <v>4.35</v>
+      </c>
+      <c r="AD36">
+        <v>94.5</v>
+      </c>
+      <c r="AE36">
+        <v>3.15</v>
+      </c>
+      <c r="AH36">
+        <v>40.5</v>
+      </c>
+      <c r="AI36">
+        <v>1.35</v>
+      </c>
+      <c r="AL36">
+        <v>139.5</v>
+      </c>
+      <c r="AM36">
+        <v>4.65</v>
+      </c>
+      <c r="AP36">
+        <v>130.5</v>
+      </c>
+      <c r="AQ36">
+        <v>4.35</v>
+      </c>
+      <c r="AT36">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU36">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX36">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY36">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB36">
+        <v>108</v>
+      </c>
+      <c r="BC36">
+        <v>3.6</v>
+      </c>
+      <c r="BF36">
+        <v>85.5</v>
+      </c>
+      <c r="BG36">
+        <v>2.85</v>
+      </c>
+      <c r="BJ36">
+        <v>72</v>
+      </c>
+      <c r="BK36">
+        <v>2.4</v>
+      </c>
+      <c r="BN36">
+        <v>58.5</v>
+      </c>
+      <c r="BO36">
+        <v>1.95</v>
+      </c>
+      <c r="BR36">
+        <v>94.5</v>
+      </c>
+      <c r="BS36">
+        <v>3.15</v>
+      </c>
+      <c r="BV36">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW36">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ36">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA36">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD36">
+        <v>121.5</v>
+      </c>
+      <c r="CE36">
+        <v>4.05</v>
+      </c>
+      <c r="CH36">
+        <v>135</v>
+      </c>
+      <c r="CI36">
+        <v>4.5</v>
+      </c>
+      <c r="CL36">
+        <v>279</v>
+      </c>
+      <c r="CM36">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CP36">
+        <v>351</v>
+      </c>
+      <c r="CQ36">
+        <v>11.7</v>
+      </c>
+      <c r="CT36">
+        <v>76.5</v>
+      </c>
+      <c r="CU36">
+        <v>2.55</v>
+      </c>
+      <c r="CV36">
+        <v>14</v>
+      </c>
+      <c r="CW36">
+        <v>63</v>
+      </c>
+      <c r="CX36">
+        <v>121.5</v>
+      </c>
+      <c r="CY36">
+        <v>4.05</v>
+      </c>
+      <c r="CZ36">
+        <v>15</v>
+      </c>
+      <c r="DA36">
+        <v>67.5</v>
+      </c>
+      <c r="DB36">
+        <v>139.5</v>
+      </c>
+      <c r="DC36">
+        <v>4.65</v>
+      </c>
+      <c r="DF36">
+        <v>143</v>
+      </c>
+      <c r="DG36">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DJ36">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK36">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN36">
+        <v>33.75</v>
+      </c>
+      <c r="DO36">
+        <v>1.125</v>
+      </c>
     </row>
-    <row r="37" spans="1:115">
+    <row r="37" spans="1:119">
       <c r="A37">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>44302</v>
+        <v>45062</v>
       </c>
       <c r="C37">
-        <v>518475053</v>
+        <v>11146</v>
       </c>
       <c r="D37" t="s">
         <v>148</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>150</v>
-      </c>
       <c r="G37" t="s">
         <v>154</v>
       </c>
@@ -8255,13 +7793,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>44302</v>
+        <v>45062</v>
       </c>
       <c r="J37" s="2">
-        <v>44337</v>
-      </c>
-      <c r="K37" t="s">
-        <v>159</v>
+        <v>45092</v>
       </c>
       <c r="L37" t="s">
         <v>163</v>
@@ -8279,19 +7814,19 @@
         <v>174</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R37" t="s">
         <v>176</v>
       </c>
       <c r="S37">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U37">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="V37">
         <v>30</v>
@@ -8299,26 +7834,176 @@
       <c r="W37">
         <v>1</v>
       </c>
+      <c r="Z37">
+        <v>130.5</v>
+      </c>
+      <c r="AA37">
+        <v>4.35</v>
+      </c>
+      <c r="AD37">
+        <v>94.5</v>
+      </c>
+      <c r="AE37">
+        <v>3.15</v>
+      </c>
+      <c r="AH37">
+        <v>40.5</v>
+      </c>
+      <c r="AI37">
+        <v>1.35</v>
+      </c>
+      <c r="AL37">
+        <v>139.5</v>
+      </c>
+      <c r="AM37">
+        <v>4.65</v>
+      </c>
+      <c r="AP37">
+        <v>130.5</v>
+      </c>
+      <c r="AQ37">
+        <v>4.35</v>
+      </c>
+      <c r="AT37">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU37">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX37">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY37">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB37">
+        <v>108</v>
+      </c>
+      <c r="BC37">
+        <v>3.6</v>
+      </c>
+      <c r="BF37">
+        <v>85.5</v>
+      </c>
+      <c r="BG37">
+        <v>2.85</v>
+      </c>
+      <c r="BJ37">
+        <v>72</v>
+      </c>
+      <c r="BK37">
+        <v>2.4</v>
+      </c>
+      <c r="BN37">
+        <v>58.5</v>
+      </c>
+      <c r="BO37">
+        <v>1.95</v>
+      </c>
+      <c r="BR37">
+        <v>94.5</v>
+      </c>
+      <c r="BS37">
+        <v>3.15</v>
+      </c>
+      <c r="BV37">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW37">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ37">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA37">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD37">
+        <v>121.5</v>
+      </c>
+      <c r="CE37">
+        <v>4.05</v>
+      </c>
+      <c r="CH37">
+        <v>135</v>
+      </c>
+      <c r="CI37">
+        <v>4.5</v>
+      </c>
+      <c r="CL37">
+        <v>279</v>
+      </c>
+      <c r="CM37">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CP37">
+        <v>351</v>
+      </c>
+      <c r="CQ37">
+        <v>11.7</v>
+      </c>
+      <c r="CT37">
+        <v>76.5</v>
+      </c>
+      <c r="CU37">
+        <v>2.55</v>
+      </c>
+      <c r="CX37">
+        <v>121.5</v>
+      </c>
+      <c r="CY37">
+        <v>4.05</v>
+      </c>
+      <c r="CZ37">
+        <v>16</v>
+      </c>
+      <c r="DA37">
+        <v>72</v>
+      </c>
+      <c r="DB37">
+        <v>139.5</v>
+      </c>
+      <c r="DC37">
+        <v>4.65</v>
+      </c>
+      <c r="DD37">
+        <v>14</v>
+      </c>
+      <c r="DE37">
+        <v>63</v>
+      </c>
+      <c r="DF37">
+        <v>143</v>
+      </c>
+      <c r="DG37">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DJ37">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK37">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN37">
+        <v>33.75</v>
+      </c>
+      <c r="DO37">
+        <v>1.125</v>
+      </c>
     </row>
-    <row r="38" spans="1:115">
+    <row r="38" spans="1:119">
       <c r="A38">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>44337</v>
+        <v>45092</v>
       </c>
       <c r="C38">
-        <v>518475056</v>
+        <v>11151</v>
       </c>
       <c r="D38" t="s">
         <v>148</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>150</v>
-      </c>
       <c r="G38" t="s">
         <v>154</v>
       </c>
@@ -8326,10 +8011,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>44337</v>
-      </c>
-      <c r="K38" t="s">
-        <v>159</v>
+        <v>45092</v>
+      </c>
+      <c r="J38" s="2">
+        <v>45119</v>
       </c>
       <c r="L38" t="s">
         <v>163</v>
@@ -8347,46 +8032,196 @@
         <v>174</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R38" t="s">
         <v>176</v>
       </c>
       <c r="S38">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U38">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="V38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>1.111111111111111</v>
+      </c>
+      <c r="Z38">
+        <v>130.5</v>
+      </c>
+      <c r="AA38">
+        <v>4.35</v>
+      </c>
+      <c r="AD38">
+        <v>94.5</v>
+      </c>
+      <c r="AE38">
+        <v>3.15</v>
+      </c>
+      <c r="AH38">
+        <v>40.5</v>
+      </c>
+      <c r="AI38">
+        <v>1.35</v>
+      </c>
+      <c r="AL38">
+        <v>139.5</v>
+      </c>
+      <c r="AM38">
+        <v>4.65</v>
+      </c>
+      <c r="AP38">
+        <v>130.5</v>
+      </c>
+      <c r="AQ38">
+        <v>4.35</v>
+      </c>
+      <c r="AT38">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU38">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX38">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY38">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB38">
+        <v>108</v>
+      </c>
+      <c r="BC38">
+        <v>3.6</v>
+      </c>
+      <c r="BF38">
+        <v>85.5</v>
+      </c>
+      <c r="BG38">
+        <v>2.85</v>
+      </c>
+      <c r="BJ38">
+        <v>72</v>
+      </c>
+      <c r="BK38">
+        <v>2.4</v>
+      </c>
+      <c r="BN38">
+        <v>58.5</v>
+      </c>
+      <c r="BO38">
+        <v>1.95</v>
+      </c>
+      <c r="BR38">
+        <v>94.5</v>
+      </c>
+      <c r="BS38">
+        <v>3.15</v>
+      </c>
+      <c r="BV38">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW38">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ38">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA38">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD38">
+        <v>121.5</v>
+      </c>
+      <c r="CE38">
+        <v>4.05</v>
+      </c>
+      <c r="CH38">
+        <v>135</v>
+      </c>
+      <c r="CI38">
+        <v>4.5</v>
+      </c>
+      <c r="CL38">
+        <v>279</v>
+      </c>
+      <c r="CM38">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CP38">
+        <v>351</v>
+      </c>
+      <c r="CQ38">
+        <v>11.7</v>
+      </c>
+      <c r="CT38">
+        <v>76.5</v>
+      </c>
+      <c r="CU38">
+        <v>2.55</v>
+      </c>
+      <c r="CX38">
+        <v>121.5</v>
+      </c>
+      <c r="CY38">
+        <v>4.05</v>
+      </c>
+      <c r="DB38">
+        <v>139.5</v>
+      </c>
+      <c r="DC38">
+        <v>4.65</v>
+      </c>
+      <c r="DD38">
+        <v>16</v>
+      </c>
+      <c r="DE38">
+        <v>80</v>
+      </c>
+      <c r="DF38">
+        <v>143</v>
+      </c>
+      <c r="DG38">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DH38">
+        <v>10</v>
+      </c>
+      <c r="DI38">
+        <v>50</v>
+      </c>
+      <c r="DJ38">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK38">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DN38">
+        <v>33.75</v>
+      </c>
+      <c r="DO38">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="39" spans="1:115">
+    <row r="39" spans="1:119">
       <c r="A39">
-        <v>5999156708</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>44371</v>
+        <v>45119</v>
       </c>
       <c r="C39">
-        <v>533910395</v>
+        <v>11147</v>
       </c>
       <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>150</v>
-      </c>
       <c r="G39" t="s">
         <v>154</v>
       </c>
@@ -8394,13 +8229,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>44371</v>
+        <v>45119</v>
       </c>
       <c r="J39" s="2">
-        <v>44390</v>
-      </c>
-      <c r="K39" t="s">
-        <v>159</v>
+        <v>45147</v>
       </c>
       <c r="L39" t="s">
         <v>163</v>
@@ -8418,36 +8250,192 @@
         <v>174</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R39" t="s">
         <v>176</v>
       </c>
       <c r="S39">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U39">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="V39">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="W39">
-        <v>1.578947368421053</v>
+        <v>1.071428571428571</v>
+      </c>
+      <c r="Z39">
+        <v>130.5</v>
+      </c>
+      <c r="AA39">
+        <v>4.35</v>
+      </c>
+      <c r="AD39">
+        <v>94.5</v>
+      </c>
+      <c r="AE39">
+        <v>3.15</v>
+      </c>
+      <c r="AH39">
+        <v>40.5</v>
+      </c>
+      <c r="AI39">
+        <v>1.35</v>
+      </c>
+      <c r="AL39">
+        <v>139.5</v>
+      </c>
+      <c r="AM39">
+        <v>4.65</v>
+      </c>
+      <c r="AP39">
+        <v>130.5</v>
+      </c>
+      <c r="AQ39">
+        <v>4.35</v>
+      </c>
+      <c r="AT39">
+        <v>141.4565217391304</v>
+      </c>
+      <c r="AU39">
+        <v>4.715217391304348</v>
+      </c>
+      <c r="AX39">
+        <v>154.1739130434783</v>
+      </c>
+      <c r="AY39">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="BB39">
+        <v>108</v>
+      </c>
+      <c r="BC39">
+        <v>3.6</v>
+      </c>
+      <c r="BF39">
+        <v>85.5</v>
+      </c>
+      <c r="BG39">
+        <v>2.85</v>
+      </c>
+      <c r="BJ39">
+        <v>72</v>
+      </c>
+      <c r="BK39">
+        <v>2.4</v>
+      </c>
+      <c r="BN39">
+        <v>58.5</v>
+      </c>
+      <c r="BO39">
+        <v>1.95</v>
+      </c>
+      <c r="BR39">
+        <v>94.5</v>
+      </c>
+      <c r="BS39">
+        <v>3.15</v>
+      </c>
+      <c r="BV39">
+        <v>185.1428571428571</v>
+      </c>
+      <c r="BW39">
+        <v>6.171428571428572</v>
+      </c>
+      <c r="BZ39">
+        <v>201.5357142857143</v>
+      </c>
+      <c r="CA39">
+        <v>6.717857142857143</v>
+      </c>
+      <c r="CD39">
+        <v>121.5</v>
+      </c>
+      <c r="CE39">
+        <v>4.05</v>
+      </c>
+      <c r="CH39">
+        <v>135</v>
+      </c>
+      <c r="CI39">
+        <v>4.5</v>
+      </c>
+      <c r="CL39">
+        <v>279</v>
+      </c>
+      <c r="CM39">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CP39">
+        <v>351</v>
+      </c>
+      <c r="CQ39">
+        <v>11.7</v>
+      </c>
+      <c r="CT39">
+        <v>76.5</v>
+      </c>
+      <c r="CU39">
+        <v>2.55</v>
+      </c>
+      <c r="CX39">
+        <v>121.5</v>
+      </c>
+      <c r="CY39">
+        <v>4.05</v>
+      </c>
+      <c r="DB39">
+        <v>139.5</v>
+      </c>
+      <c r="DC39">
+        <v>4.65</v>
+      </c>
+      <c r="DF39">
+        <v>143</v>
+      </c>
+      <c r="DG39">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="DH39">
+        <v>20</v>
+      </c>
+      <c r="DI39">
+        <v>96.42857142857143</v>
+      </c>
+      <c r="DJ39">
+        <v>146.4285714285714</v>
+      </c>
+      <c r="DK39">
+        <v>4.880952380952381</v>
+      </c>
+      <c r="DL39">
+        <v>7</v>
+      </c>
+      <c r="DM39">
+        <v>33.75</v>
+      </c>
+      <c r="DN39">
+        <v>33.75</v>
+      </c>
+      <c r="DO39">
+        <v>1.125</v>
       </c>
     </row>
-    <row r="40" spans="1:115">
+    <row r="40" spans="1:119">
       <c r="A40">
-        <v>5999348474</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>45012</v>
+        <v>44221</v>
       </c>
       <c r="C40">
-        <v>649896469</v>
+        <v>11166</v>
       </c>
       <c r="D40" t="s">
         <v>149</v>
@@ -8465,10 +8453,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>45012</v>
-      </c>
-      <c r="J40" s="2">
-        <v>45013</v>
+        <v>44221</v>
       </c>
       <c r="K40" t="s">
         <v>160</v>
@@ -8483,54 +8468,174 @@
         <v>170</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>30</v>
       </c>
       <c r="R40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S40">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="T40">
         <v>0.15</v>
       </c>
       <c r="U40">
-        <v>22.5</v>
+        <v>270</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="W40">
-        <v>5</v>
-      </c>
-      <c r="CR40">
-        <v>1</v>
-      </c>
-      <c r="CS40">
-        <v>22.5</v>
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>36</v>
+      </c>
+      <c r="AE40">
+        <v>1.2</v>
+      </c>
+      <c r="AH40">
+        <v>234</v>
+      </c>
+      <c r="AI40">
+        <v>7.8</v>
+      </c>
+      <c r="AL40">
+        <v>540</v>
+      </c>
+      <c r="AM40">
+        <v>18</v>
+      </c>
+      <c r="AP40">
+        <v>198</v>
+      </c>
+      <c r="AQ40">
+        <v>6.6</v>
+      </c>
+      <c r="AT40">
+        <v>135</v>
+      </c>
+      <c r="AU40">
+        <v>4.5</v>
+      </c>
+      <c r="AX40">
+        <v>216</v>
+      </c>
+      <c r="AY40">
+        <v>7.2</v>
+      </c>
+      <c r="BB40">
+        <v>243</v>
+      </c>
+      <c r="BC40">
+        <v>8.1</v>
+      </c>
+      <c r="BF40">
+        <v>153</v>
+      </c>
+      <c r="BG40">
+        <v>5.1</v>
+      </c>
+      <c r="BJ40">
+        <v>135</v>
+      </c>
+      <c r="BK40">
+        <v>4.5</v>
+      </c>
+      <c r="BN40">
+        <v>225</v>
+      </c>
+      <c r="BO40">
+        <v>7.5</v>
+      </c>
+      <c r="BR40">
+        <v>36</v>
+      </c>
+      <c r="BS40">
+        <v>1.2</v>
+      </c>
+      <c r="BV40">
+        <v>126</v>
+      </c>
+      <c r="BW40">
+        <v>4.2</v>
+      </c>
+      <c r="BZ40">
+        <v>396</v>
+      </c>
+      <c r="CA40">
+        <v>13.2</v>
+      </c>
+      <c r="CD40">
+        <v>117</v>
+      </c>
+      <c r="CE40">
+        <v>3.9</v>
+      </c>
+      <c r="CH40">
+        <v>243</v>
+      </c>
+      <c r="CI40">
+        <v>8.1</v>
+      </c>
+      <c r="CL40">
+        <v>162</v>
+      </c>
+      <c r="CM40">
+        <v>5.4</v>
+      </c>
+      <c r="CP40">
+        <v>207</v>
+      </c>
+      <c r="CQ40">
+        <v>6.9</v>
       </c>
       <c r="CT40">
-        <v>22.5</v>
+        <v>247.5</v>
       </c>
       <c r="CU40">
-        <v>0.75</v>
+        <v>8.25</v>
+      </c>
+      <c r="CX40">
+        <v>99</v>
+      </c>
+      <c r="CY40">
+        <v>3.3</v>
+      </c>
+      <c r="DB40">
+        <v>144</v>
+      </c>
+      <c r="DC40">
+        <v>4.8</v>
+      </c>
+      <c r="DF40">
+        <v>180</v>
+      </c>
+      <c r="DG40">
+        <v>6</v>
+      </c>
+      <c r="DJ40">
+        <v>468</v>
+      </c>
+      <c r="DK40">
+        <v>15.6</v>
       </c>
     </row>
-    <row r="41" spans="1:115">
+    <row r="41" spans="1:119">
       <c r="A41">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="C41">
-        <v>480274575</v>
+        <v>11154</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
@@ -8542,13 +8647,13 @@
         <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="K41" t="s">
         <v>160</v>
@@ -8563,16 +8668,16 @@
         <v>170</v>
       </c>
       <c r="O41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>30</v>
       </c>
       <c r="R41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S41">
         <v>1800</v>
@@ -8692,10 +8797,10 @@
         <v>6.9</v>
       </c>
       <c r="CT41">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU41">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX41">
         <v>99</v>
@@ -8722,15 +8827,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="42" spans="1:115">
+    <row r="42" spans="1:119">
       <c r="A42">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="C42">
-        <v>480274579</v>
+        <v>11161</v>
       </c>
       <c r="D42" t="s">
         <v>149</v>
@@ -8742,13 +8847,13 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="K42" t="s">
         <v>160</v>
@@ -8763,16 +8868,16 @@
         <v>170</v>
       </c>
       <c r="O42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>30</v>
       </c>
       <c r="R42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S42">
         <v>1800</v>
@@ -8892,10 +8997,10 @@
         <v>6.9</v>
       </c>
       <c r="CT42">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU42">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX42">
         <v>99</v>
@@ -8922,15 +9027,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="43" spans="1:115">
+    <row r="43" spans="1:119">
       <c r="A43">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>44370</v>
+        <v>44406</v>
       </c>
       <c r="C43">
-        <v>533896138</v>
+        <v>11153</v>
       </c>
       <c r="D43" t="s">
         <v>149</v>
@@ -8942,13 +9047,13 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>44370</v>
+        <v>44406</v>
       </c>
       <c r="K43" t="s">
         <v>160</v>
@@ -8963,16 +9068,16 @@
         <v>170</v>
       </c>
       <c r="O43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>30</v>
       </c>
       <c r="R43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S43">
         <v>1800</v>
@@ -9092,10 +9197,10 @@
         <v>6.9</v>
       </c>
       <c r="CT43">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU43">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX43">
         <v>99</v>
@@ -9122,15 +9227,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="44" spans="1:115">
+    <row r="44" spans="1:119">
       <c r="A44">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2">
-        <v>44406</v>
+        <v>44483</v>
       </c>
       <c r="C44">
-        <v>533896144</v>
+        <v>11156</v>
       </c>
       <c r="D44" t="s">
         <v>149</v>
@@ -9142,13 +9247,13 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>44406</v>
+        <v>44497</v>
       </c>
       <c r="K44" t="s">
         <v>160</v>
@@ -9163,16 +9268,16 @@
         <v>170</v>
       </c>
       <c r="O44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>30</v>
       </c>
       <c r="R44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S44">
         <v>1800</v>
@@ -9189,12 +9294,24 @@
       <c r="W44">
         <v>2</v>
       </c>
+      <c r="AB44">
+        <v>4</v>
+      </c>
+      <c r="AC44">
+        <v>36</v>
+      </c>
       <c r="AD44">
         <v>36</v>
       </c>
       <c r="AE44">
         <v>1.2</v>
       </c>
+      <c r="AF44">
+        <v>26</v>
+      </c>
+      <c r="AG44">
+        <v>234</v>
+      </c>
       <c r="AH44">
         <v>234</v>
       </c>
@@ -9292,10 +9409,10 @@
         <v>6.9</v>
       </c>
       <c r="CT44">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU44">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX44">
         <v>99</v>
@@ -9322,15 +9439,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="45" spans="1:115">
+    <row r="45" spans="1:119">
       <c r="A45">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
-        <v>44483</v>
+        <v>44532</v>
       </c>
       <c r="C45">
-        <v>544702256</v>
+        <v>11157</v>
       </c>
       <c r="D45" t="s">
         <v>149</v>
@@ -9342,13 +9459,16 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>44497</v>
+        <v>44532</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44571</v>
       </c>
       <c r="K45" t="s">
         <v>160</v>
@@ -9363,16 +9483,16 @@
         <v>170</v>
       </c>
       <c r="O45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>30</v>
       </c>
       <c r="R45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S45">
         <v>1800</v>
@@ -9389,30 +9509,24 @@
       <c r="W45">
         <v>2</v>
       </c>
-      <c r="AB45">
-        <v>4</v>
-      </c>
-      <c r="AC45">
-        <v>36</v>
-      </c>
       <c r="AD45">
         <v>36</v>
       </c>
       <c r="AE45">
         <v>1.2</v>
       </c>
-      <c r="AF45">
-        <v>26</v>
-      </c>
-      <c r="AG45">
-        <v>234</v>
-      </c>
       <c r="AH45">
         <v>234</v>
       </c>
       <c r="AI45">
         <v>7.8</v>
       </c>
+      <c r="AJ45">
+        <v>30</v>
+      </c>
+      <c r="AK45">
+        <v>270</v>
+      </c>
       <c r="AL45">
         <v>540</v>
       </c>
@@ -9504,10 +9618,10 @@
         <v>6.9</v>
       </c>
       <c r="CT45">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU45">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX45">
         <v>99</v>
@@ -9534,15 +9648,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="46" spans="1:115">
+    <row r="46" spans="1:119">
       <c r="A46">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
-        <v>44532</v>
+        <v>44571</v>
       </c>
       <c r="C46">
-        <v>561634656</v>
+        <v>11158</v>
       </c>
       <c r="D46" t="s">
         <v>149</v>
@@ -9554,15 +9668,12 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>44532</v>
-      </c>
-      <c r="J46" s="2">
         <v>44571</v>
       </c>
       <c r="K46" t="s">
@@ -9578,16 +9689,16 @@
         <v>170</v>
       </c>
       <c r="O46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>30</v>
       </c>
       <c r="R46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S46">
         <v>1800</v>
@@ -9616,24 +9727,30 @@
       <c r="AI46">
         <v>7.8</v>
       </c>
-      <c r="AJ46">
-        <v>30</v>
-      </c>
-      <c r="AK46">
-        <v>270</v>
-      </c>
       <c r="AL46">
         <v>540</v>
       </c>
       <c r="AM46">
         <v>18</v>
       </c>
+      <c r="AN46">
+        <v>22</v>
+      </c>
+      <c r="AO46">
+        <v>198</v>
+      </c>
       <c r="AP46">
         <v>198</v>
       </c>
       <c r="AQ46">
         <v>6.6</v>
       </c>
+      <c r="AR46">
+        <v>10</v>
+      </c>
+      <c r="AS46">
+        <v>90</v>
+      </c>
       <c r="AT46">
         <v>135</v>
       </c>
@@ -9713,10 +9830,10 @@
         <v>6.9</v>
       </c>
       <c r="CT46">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU46">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX46">
         <v>99</v>
@@ -9743,15 +9860,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="47" spans="1:115">
+    <row r="47" spans="1:119">
       <c r="A47">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
-        <v>44571</v>
+        <v>44616</v>
       </c>
       <c r="C47">
-        <v>568037824</v>
+        <v>11159</v>
       </c>
       <c r="D47" t="s">
         <v>149</v>
@@ -9763,13 +9880,13 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>44571</v>
+        <v>44616</v>
       </c>
       <c r="K47" t="s">
         <v>160</v>
@@ -9784,16 +9901,16 @@
         <v>170</v>
       </c>
       <c r="O47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>30</v>
       </c>
       <c r="R47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S47">
         <v>1800</v>
@@ -9828,12 +9945,6 @@
       <c r="AM47">
         <v>18</v>
       </c>
-      <c r="AN47">
-        <v>22</v>
-      </c>
-      <c r="AO47">
-        <v>198</v>
-      </c>
       <c r="AP47">
         <v>198</v>
       </c>
@@ -9841,10 +9952,10 @@
         <v>6.6</v>
       </c>
       <c r="AR47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS47">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AT47">
         <v>135</v>
@@ -9852,6 +9963,12 @@
       <c r="AU47">
         <v>4.5</v>
       </c>
+      <c r="AV47">
+        <v>24</v>
+      </c>
+      <c r="AW47">
+        <v>216</v>
+      </c>
       <c r="AX47">
         <v>216</v>
       </c>
@@ -9925,10 +10042,10 @@
         <v>6.9</v>
       </c>
       <c r="CT47">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU47">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX47">
         <v>99</v>
@@ -9955,15 +10072,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="48" spans="1:115">
+    <row r="48" spans="1:119">
       <c r="A48">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2">
-        <v>44616</v>
+        <v>44655</v>
       </c>
       <c r="C48">
-        <v>578251085</v>
+        <v>11162</v>
       </c>
       <c r="D48" t="s">
         <v>149</v>
@@ -9975,13 +10092,13 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>44616</v>
+        <v>44655</v>
       </c>
       <c r="K48" t="s">
         <v>160</v>
@@ -9996,16 +10113,16 @@
         <v>170</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>30</v>
       </c>
       <c r="R48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S48">
         <v>1800</v>
@@ -10046,36 +10163,36 @@
       <c r="AQ48">
         <v>6.6</v>
       </c>
-      <c r="AR48">
-        <v>5</v>
-      </c>
-      <c r="AS48">
-        <v>45</v>
-      </c>
       <c r="AT48">
         <v>135</v>
       </c>
       <c r="AU48">
         <v>4.5</v>
       </c>
-      <c r="AV48">
-        <v>24</v>
-      </c>
-      <c r="AW48">
-        <v>216</v>
-      </c>
       <c r="AX48">
         <v>216</v>
       </c>
       <c r="AY48">
         <v>7.2</v>
       </c>
+      <c r="AZ48">
+        <v>27</v>
+      </c>
+      <c r="BA48">
+        <v>243</v>
+      </c>
       <c r="BB48">
         <v>243</v>
       </c>
       <c r="BC48">
         <v>8.1</v>
       </c>
+      <c r="BD48">
+        <v>2</v>
+      </c>
+      <c r="BE48">
+        <v>18</v>
+      </c>
       <c r="BF48">
         <v>153</v>
       </c>
@@ -10137,10 +10254,10 @@
         <v>6.9</v>
       </c>
       <c r="CT48">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU48">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX48">
         <v>99</v>
@@ -10169,13 +10286,13 @@
     </row>
     <row r="49" spans="1:115">
       <c r="A49">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>44655</v>
+        <v>44698</v>
       </c>
       <c r="C49">
-        <v>578251090</v>
+        <v>11160</v>
       </c>
       <c r="D49" t="s">
         <v>149</v>
@@ -10187,13 +10304,13 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>44655</v>
+        <v>44698</v>
       </c>
       <c r="K49" t="s">
         <v>160</v>
@@ -10208,16 +10325,16 @@
         <v>170</v>
       </c>
       <c r="O49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>30</v>
       </c>
       <c r="R49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S49">
         <v>1800</v>
@@ -10270,12 +10387,6 @@
       <c r="AY49">
         <v>7.2</v>
       </c>
-      <c r="AZ49">
-        <v>27</v>
-      </c>
-      <c r="BA49">
-        <v>243</v>
-      </c>
       <c r="BB49">
         <v>243</v>
       </c>
@@ -10283,10 +10394,10 @@
         <v>8.1</v>
       </c>
       <c r="BD49">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BE49">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="BF49">
         <v>153</v>
@@ -10294,6 +10405,12 @@
       <c r="BG49">
         <v>5.1</v>
       </c>
+      <c r="BH49">
+        <v>15</v>
+      </c>
+      <c r="BI49">
+        <v>135</v>
+      </c>
       <c r="BJ49">
         <v>135</v>
       </c>
@@ -10349,10 +10466,10 @@
         <v>6.9</v>
       </c>
       <c r="CT49">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU49">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX49">
         <v>99</v>
@@ -10381,13 +10498,13 @@
     </row>
     <row r="50" spans="1:115">
       <c r="A50">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>44698</v>
+        <v>44749</v>
       </c>
       <c r="C50">
-        <v>589291674</v>
+        <v>11164</v>
       </c>
       <c r="D50" t="s">
         <v>149</v>
@@ -10399,13 +10516,13 @@
         <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>44698</v>
+        <v>44749</v>
       </c>
       <c r="K50" t="s">
         <v>160</v>
@@ -10420,16 +10537,16 @@
         <v>170</v>
       </c>
       <c r="O50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>30</v>
       </c>
       <c r="R50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S50">
         <v>1800</v>
@@ -10488,36 +10605,36 @@
       <c r="BC50">
         <v>8.1</v>
       </c>
-      <c r="BD50">
-        <v>15</v>
-      </c>
-      <c r="BE50">
-        <v>135</v>
-      </c>
       <c r="BF50">
         <v>153</v>
       </c>
       <c r="BG50">
         <v>5.1</v>
       </c>
-      <c r="BH50">
-        <v>15</v>
-      </c>
-      <c r="BI50">
-        <v>135</v>
-      </c>
       <c r="BJ50">
         <v>135</v>
       </c>
       <c r="BK50">
         <v>4.5</v>
       </c>
+      <c r="BL50">
+        <v>25</v>
+      </c>
+      <c r="BM50">
+        <v>225</v>
+      </c>
       <c r="BN50">
         <v>225</v>
       </c>
       <c r="BO50">
         <v>7.5</v>
       </c>
+      <c r="BP50">
+        <v>4</v>
+      </c>
+      <c r="BQ50">
+        <v>36</v>
+      </c>
       <c r="BR50">
         <v>36</v>
       </c>
@@ -10561,10 +10678,10 @@
         <v>6.9</v>
       </c>
       <c r="CT50">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU50">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX50">
         <v>99</v>
@@ -10593,13 +10710,13 @@
     </row>
     <row r="51" spans="1:115">
       <c r="A51">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>44749</v>
+        <v>44826</v>
       </c>
       <c r="C51">
-        <v>600961576</v>
+        <v>11165</v>
       </c>
       <c r="D51" t="s">
         <v>149</v>
@@ -10611,13 +10728,13 @@
         <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>44749</v>
+        <v>44826</v>
       </c>
       <c r="K51" t="s">
         <v>160</v>
@@ -10632,16 +10749,16 @@
         <v>170</v>
       </c>
       <c r="O51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>30</v>
       </c>
       <c r="R51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S51">
         <v>1800</v>
@@ -10712,36 +10829,36 @@
       <c r="BK51">
         <v>4.5</v>
       </c>
-      <c r="BL51">
-        <v>25</v>
-      </c>
-      <c r="BM51">
-        <v>225</v>
-      </c>
       <c r="BN51">
         <v>225</v>
       </c>
       <c r="BO51">
         <v>7.5</v>
       </c>
-      <c r="BP51">
-        <v>4</v>
-      </c>
-      <c r="BQ51">
-        <v>36</v>
-      </c>
       <c r="BR51">
         <v>36</v>
       </c>
       <c r="BS51">
         <v>1.2</v>
       </c>
+      <c r="BT51">
+        <v>9</v>
+      </c>
+      <c r="BU51">
+        <v>81</v>
+      </c>
       <c r="BV51">
         <v>126</v>
       </c>
       <c r="BW51">
         <v>4.2</v>
       </c>
+      <c r="BX51">
+        <v>20</v>
+      </c>
+      <c r="BY51">
+        <v>180</v>
+      </c>
       <c r="BZ51">
         <v>396</v>
       </c>
@@ -10773,10 +10890,10 @@
         <v>6.9</v>
       </c>
       <c r="CT51">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU51">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX51">
         <v>99</v>
@@ -10805,13 +10922,13 @@
     </row>
     <row r="52" spans="1:115">
       <c r="A52">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>44826</v>
+        <v>44830</v>
       </c>
       <c r="C52">
-        <v>613482149</v>
+        <v>11167</v>
       </c>
       <c r="D52" t="s">
         <v>149</v>
@@ -10823,13 +10940,13 @@
         <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>44826</v>
+        <v>44830</v>
       </c>
       <c r="K52" t="s">
         <v>160</v>
@@ -10844,16 +10961,16 @@
         <v>170</v>
       </c>
       <c r="O52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>30</v>
       </c>
       <c r="R52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S52">
         <v>1800</v>
@@ -10937,10 +11054,10 @@
         <v>1.2</v>
       </c>
       <c r="BT52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BU52">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="BV52">
         <v>126</v>
@@ -10949,10 +11066,10 @@
         <v>4.2</v>
       </c>
       <c r="BX52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BY52">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="BZ52">
         <v>396</v>
@@ -10985,10 +11102,10 @@
         <v>6.9</v>
       </c>
       <c r="CT52">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU52">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX52">
         <v>99</v>
@@ -11017,13 +11134,13 @@
     </row>
     <row r="53" spans="1:115">
       <c r="A53">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>44830</v>
+        <v>44883</v>
       </c>
       <c r="C53">
-        <v>613482147</v>
+        <v>11171</v>
       </c>
       <c r="D53" t="s">
         <v>149</v>
@@ -11035,13 +11152,13 @@
         <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>44830</v>
+        <v>44883</v>
       </c>
       <c r="K53" t="s">
         <v>160</v>
@@ -11056,16 +11173,16 @@
         <v>170</v>
       </c>
       <c r="O53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>30</v>
       </c>
       <c r="R53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S53">
         <v>1800</v>
@@ -11148,36 +11265,36 @@
       <c r="BS53">
         <v>1.2</v>
       </c>
-      <c r="BT53">
-        <v>5</v>
-      </c>
-      <c r="BU53">
-        <v>45</v>
-      </c>
       <c r="BV53">
         <v>126</v>
       </c>
       <c r="BW53">
         <v>4.2</v>
       </c>
-      <c r="BX53">
-        <v>24</v>
-      </c>
-      <c r="BY53">
-        <v>216</v>
-      </c>
       <c r="BZ53">
         <v>396</v>
       </c>
       <c r="CA53">
         <v>13.2</v>
       </c>
+      <c r="CB53">
+        <v>13</v>
+      </c>
+      <c r="CC53">
+        <v>117</v>
+      </c>
       <c r="CD53">
         <v>117</v>
       </c>
       <c r="CE53">
         <v>3.9</v>
       </c>
+      <c r="CF53">
+        <v>16</v>
+      </c>
+      <c r="CG53">
+        <v>144</v>
+      </c>
       <c r="CH53">
         <v>243</v>
       </c>
@@ -11197,10 +11314,10 @@
         <v>6.9</v>
       </c>
       <c r="CT53">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU53">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX53">
         <v>99</v>
@@ -11229,13 +11346,13 @@
     </row>
     <row r="54" spans="1:115">
       <c r="A54">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>44883</v>
+        <v>44916</v>
       </c>
       <c r="C54">
-        <v>613482152</v>
+        <v>11169</v>
       </c>
       <c r="D54" t="s">
         <v>149</v>
@@ -11247,13 +11364,13 @@
         <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>44883</v>
+        <v>44916</v>
       </c>
       <c r="K54" t="s">
         <v>160</v>
@@ -11268,16 +11385,16 @@
         <v>170</v>
       </c>
       <c r="O54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>30</v>
       </c>
       <c r="R54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S54">
         <v>1800</v>
@@ -11372,12 +11489,6 @@
       <c r="CA54">
         <v>13.2</v>
       </c>
-      <c r="CB54">
-        <v>13</v>
-      </c>
-      <c r="CC54">
-        <v>117</v>
-      </c>
       <c r="CD54">
         <v>117</v>
       </c>
@@ -11385,10 +11496,10 @@
         <v>3.9</v>
       </c>
       <c r="CF54">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="CG54">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="CH54">
         <v>243</v>
@@ -11396,6 +11507,12 @@
       <c r="CI54">
         <v>8.1</v>
       </c>
+      <c r="CJ54">
+        <v>18</v>
+      </c>
+      <c r="CK54">
+        <v>162</v>
+      </c>
       <c r="CL54">
         <v>162</v>
       </c>
@@ -11409,10 +11526,10 @@
         <v>6.9</v>
       </c>
       <c r="CT54">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU54">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX54">
         <v>99</v>
@@ -11441,13 +11558,13 @@
     </row>
     <row r="55" spans="1:115">
       <c r="A55">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2">
-        <v>44916</v>
+        <v>44963</v>
       </c>
       <c r="C55">
-        <v>635119753</v>
+        <v>11170</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -11459,13 +11576,16 @@
         <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>44916</v>
+        <v>44963</v>
+      </c>
+      <c r="J55" s="2">
+        <v>44996</v>
       </c>
       <c r="K55" t="s">
         <v>160</v>
@@ -11480,16 +11600,16 @@
         <v>170</v>
       </c>
       <c r="O55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>30</v>
       </c>
       <c r="R55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S55">
         <v>1800</v>
@@ -11590,41 +11710,41 @@
       <c r="CE55">
         <v>3.9</v>
       </c>
-      <c r="CF55">
-        <v>11</v>
-      </c>
-      <c r="CG55">
-        <v>99</v>
-      </c>
       <c r="CH55">
         <v>243</v>
       </c>
       <c r="CI55">
         <v>8.1</v>
       </c>
-      <c r="CJ55">
-        <v>18</v>
-      </c>
-      <c r="CK55">
-        <v>162</v>
-      </c>
       <c r="CL55">
         <v>162</v>
       </c>
       <c r="CM55">
         <v>5.4</v>
       </c>
+      <c r="CN55">
+        <v>23</v>
+      </c>
+      <c r="CO55">
+        <v>207</v>
+      </c>
       <c r="CP55">
         <v>207</v>
       </c>
       <c r="CQ55">
         <v>6.9</v>
       </c>
+      <c r="CR55">
+        <v>6</v>
+      </c>
+      <c r="CS55">
+        <v>54</v>
+      </c>
       <c r="CT55">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU55">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX55">
         <v>99</v>
@@ -11653,13 +11773,13 @@
     </row>
     <row r="56" spans="1:115">
       <c r="A56">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>44963</v>
+        <v>44998</v>
       </c>
       <c r="C56">
-        <v>643223350</v>
+        <v>11155</v>
       </c>
       <c r="D56" t="s">
         <v>149</v>
@@ -11671,16 +11791,13 @@
         <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>44963</v>
-      </c>
-      <c r="J56" s="2">
-        <v>44996</v>
+        <v>44998</v>
       </c>
       <c r="K56" t="s">
         <v>160</v>
@@ -11695,16 +11812,16 @@
         <v>170</v>
       </c>
       <c r="O56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>30</v>
       </c>
       <c r="R56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S56">
         <v>1800</v>
@@ -11817,12 +11934,6 @@
       <c r="CM56">
         <v>5.4</v>
       </c>
-      <c r="CN56">
-        <v>23</v>
-      </c>
-      <c r="CO56">
-        <v>207</v>
-      </c>
       <c r="CP56">
         <v>207</v>
       </c>
@@ -11830,16 +11941,22 @@
         <v>6.9</v>
       </c>
       <c r="CR56">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="CS56">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="CT56">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU56">
-        <v>7.5</v>
+        <v>8.25</v>
+      </c>
+      <c r="CV56">
+        <v>11</v>
+      </c>
+      <c r="CW56">
+        <v>99</v>
       </c>
       <c r="CX56">
         <v>99</v>
@@ -11868,13 +11985,13 @@
     </row>
     <row r="57" spans="1:115">
       <c r="A57">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="C57">
-        <v>643223355</v>
+        <v>11152</v>
       </c>
       <c r="D57" t="s">
         <v>149</v>
@@ -11892,7 +12009,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>44998</v>
+        <v>45012</v>
+      </c>
+      <c r="J57" s="2">
+        <v>45013</v>
       </c>
       <c r="K57" t="s">
         <v>160</v>
@@ -11907,31 +12027,31 @@
         <v>170</v>
       </c>
       <c r="O57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>30</v>
       </c>
       <c r="R57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S57">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="T57">
         <v>0.15</v>
       </c>
       <c r="U57">
-        <v>270</v>
+        <v>22.5</v>
       </c>
       <c r="V57">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD57">
         <v>36</v>
@@ -12036,22 +12156,16 @@
         <v>6.9</v>
       </c>
       <c r="CR57">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="CS57">
-        <v>171</v>
+        <v>22.5</v>
       </c>
       <c r="CT57">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU57">
-        <v>7.5</v>
-      </c>
-      <c r="CV57">
-        <v>11</v>
-      </c>
-      <c r="CW57">
-        <v>99</v>
+        <v>8.25</v>
       </c>
       <c r="CX57">
         <v>99</v>
@@ -12080,13 +12194,13 @@
     </row>
     <row r="58" spans="1:115">
       <c r="A58">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2">
         <v>45062</v>
       </c>
       <c r="C58">
-        <v>643223358</v>
+        <v>11168</v>
       </c>
       <c r="D58" t="s">
         <v>149</v>
@@ -12098,7 +12212,7 @@
         <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -12119,16 +12233,16 @@
         <v>170</v>
       </c>
       <c r="O58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>30</v>
       </c>
       <c r="R58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S58">
         <v>1800</v>
@@ -12248,10 +12362,10 @@
         <v>6.9</v>
       </c>
       <c r="CT58">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU58">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX58">
         <v>99</v>
@@ -12292,13 +12406,13 @@
     </row>
     <row r="59" spans="1:115">
       <c r="A59">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2">
         <v>45103</v>
       </c>
       <c r="C59">
-        <v>643223359</v>
+        <v>11174</v>
       </c>
       <c r="D59" t="s">
         <v>149</v>
@@ -12310,7 +12424,7 @@
         <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -12331,16 +12445,16 @@
         <v>170</v>
       </c>
       <c r="O59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S59">
         <v>1800</v>
@@ -12460,10 +12574,10 @@
         <v>6.9</v>
       </c>
       <c r="CT59">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU59">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX59">
         <v>99</v>
@@ -12504,13 +12618,13 @@
     </row>
     <row r="60" spans="1:115">
       <c r="A60">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B60" s="2">
         <v>45107</v>
       </c>
       <c r="C60">
-        <v>672871196</v>
+        <v>11172</v>
       </c>
       <c r="D60" t="s">
         <v>149</v>
@@ -12522,7 +12636,7 @@
         <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -12543,16 +12657,16 @@
         <v>170</v>
       </c>
       <c r="O60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>30</v>
       </c>
       <c r="R60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S60">
         <v>1800</v>
@@ -12672,10 +12786,10 @@
         <v>6.9</v>
       </c>
       <c r="CT60">
-        <v>225</v>
+        <v>247.5</v>
       </c>
       <c r="CU60">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="CX60">
         <v>99</v>
@@ -12716,13 +12830,13 @@
     </row>
     <row r="61" spans="1:115">
       <c r="A61">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
         <v>44207</v>
       </c>
       <c r="C61">
-        <v>489234824</v>
+        <v>11182</v>
       </c>
       <c r="D61" t="s">
         <v>149</v>
@@ -12755,16 +12869,16 @@
         <v>170</v>
       </c>
       <c r="O61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>30</v>
       </c>
       <c r="R61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S61">
         <v>2700</v>
@@ -12910,13 +13024,13 @@
     </row>
     <row r="62" spans="1:115">
       <c r="A62">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
         <v>44500</v>
       </c>
       <c r="C62">
-        <v>542997850</v>
+        <v>11180</v>
       </c>
       <c r="D62" t="s">
         <v>149</v>
@@ -12940,16 +13054,16 @@
         <v>170</v>
       </c>
       <c r="O62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>30</v>
       </c>
       <c r="R62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S62">
         <v>2700</v>
@@ -13107,13 +13221,13 @@
     </row>
     <row r="63" spans="1:115">
       <c r="A63">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2">
         <v>44543</v>
       </c>
       <c r="C63">
-        <v>558640876</v>
+        <v>11181</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
@@ -13137,16 +13251,16 @@
         <v>170</v>
       </c>
       <c r="O63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>30</v>
       </c>
       <c r="R63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S63">
         <v>2700</v>
@@ -13304,13 +13418,13 @@
     </row>
     <row r="64" spans="1:115">
       <c r="A64">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2">
         <v>44592</v>
       </c>
       <c r="C64">
-        <v>558640880</v>
+        <v>11183</v>
       </c>
       <c r="D64" t="s">
         <v>149</v>
@@ -13334,16 +13448,16 @@
         <v>170</v>
       </c>
       <c r="O64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>30</v>
       </c>
       <c r="R64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S64">
         <v>2700</v>
@@ -13507,13 +13621,13 @@
     </row>
     <row r="65" spans="1:111">
       <c r="A65">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2">
         <v>44635</v>
       </c>
       <c r="C65">
-        <v>580282514</v>
+        <v>11184</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
@@ -13537,16 +13651,16 @@
         <v>170</v>
       </c>
       <c r="O65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>30</v>
       </c>
       <c r="R65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S65">
         <v>2700</v>
@@ -13704,13 +13818,13 @@
     </row>
     <row r="66" spans="1:111">
       <c r="A66">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2">
         <v>44690</v>
       </c>
       <c r="C66">
-        <v>580282517</v>
+        <v>11179</v>
       </c>
       <c r="D66" t="s">
         <v>149</v>
@@ -13734,16 +13848,16 @@
         <v>170</v>
       </c>
       <c r="O66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>30</v>
       </c>
       <c r="R66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S66">
         <v>2700</v>
@@ -13901,13 +14015,13 @@
     </row>
     <row r="67" spans="1:111">
       <c r="A67">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2">
         <v>44732</v>
       </c>
       <c r="C67">
-        <v>597204584</v>
+        <v>11186</v>
       </c>
       <c r="D67" t="s">
         <v>149</v>
@@ -13931,16 +14045,16 @@
         <v>170</v>
       </c>
       <c r="O67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>30</v>
       </c>
       <c r="R67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S67">
         <v>2700</v>
@@ -14098,13 +14212,13 @@
     </row>
     <row r="68" spans="1:111">
       <c r="A68">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2">
         <v>44782</v>
       </c>
       <c r="C68">
-        <v>597204589</v>
+        <v>11178</v>
       </c>
       <c r="D68" t="s">
         <v>149</v>
@@ -14131,16 +14245,16 @@
         <v>170</v>
       </c>
       <c r="O68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>30</v>
       </c>
       <c r="R68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S68">
         <v>2700</v>
@@ -14298,13 +14412,13 @@
     </row>
     <row r="69" spans="1:111">
       <c r="A69">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2">
         <v>44817</v>
       </c>
       <c r="C69">
-        <v>613928513</v>
+        <v>11185</v>
       </c>
       <c r="D69" t="s">
         <v>149</v>
@@ -14328,16 +14442,16 @@
         <v>170</v>
       </c>
       <c r="O69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>30</v>
       </c>
       <c r="R69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S69">
         <v>2700</v>
@@ -14495,13 +14609,13 @@
     </row>
     <row r="70" spans="1:111">
       <c r="A70">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2">
         <v>44865</v>
       </c>
       <c r="C70">
-        <v>625381739</v>
+        <v>11187</v>
       </c>
       <c r="D70" t="s">
         <v>149</v>
@@ -14525,16 +14639,16 @@
         <v>170</v>
       </c>
       <c r="O70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>30</v>
       </c>
       <c r="R70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S70">
         <v>2700</v>
@@ -14692,13 +14806,13 @@
     </row>
     <row r="71" spans="1:111">
       <c r="A71">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>44915</v>
       </c>
       <c r="C71">
-        <v>625381741</v>
+        <v>11177</v>
       </c>
       <c r="D71" t="s">
         <v>149</v>
@@ -14722,16 +14836,16 @@
         <v>170</v>
       </c>
       <c r="O71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>30</v>
       </c>
       <c r="R71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S71">
         <v>2700</v>
@@ -14889,13 +15003,13 @@
     </row>
     <row r="72" spans="1:111">
       <c r="A72">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
         <v>44965</v>
       </c>
       <c r="C72">
-        <v>642996904</v>
+        <v>11176</v>
       </c>
       <c r="D72" t="s">
         <v>149</v>
@@ -14919,16 +15033,16 @@
         <v>170</v>
       </c>
       <c r="O72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q72">
         <v>30</v>
       </c>
       <c r="R72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S72">
         <v>2700</v>
@@ -15086,13 +15200,13 @@
     </row>
     <row r="73" spans="1:111">
       <c r="A73">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <v>45012</v>
       </c>
       <c r="C73">
-        <v>642996907</v>
+        <v>11175</v>
       </c>
       <c r="D73" t="s">
         <v>149</v>
@@ -15116,16 +15230,16 @@
         <v>170</v>
       </c>
       <c r="O73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>30</v>
       </c>
       <c r="R73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S73">
         <v>2700</v>
@@ -15283,13 +15397,13 @@
     </row>
     <row r="74" spans="1:111">
       <c r="A74">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
         <v>45064</v>
       </c>
       <c r="C74">
-        <v>661964518</v>
+        <v>11188</v>
       </c>
       <c r="D74" t="s">
         <v>149</v>
@@ -15313,16 +15427,16 @@
         <v>170</v>
       </c>
       <c r="O74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q74">
         <v>30</v>
       </c>
       <c r="R74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S74">
         <v>2700</v>
